--- a/AAII_Financials/Quarterly/DRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRT_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>52700</v>
+        <v>43400</v>
       </c>
       <c r="E8" s="3">
-        <v>37800</v>
+        <v>52400</v>
       </c>
       <c r="F8" s="3">
-        <v>54100</v>
+        <v>37600</v>
       </c>
       <c r="G8" s="3">
-        <v>59300</v>
+        <v>53800</v>
       </c>
       <c r="H8" s="3">
-        <v>54100</v>
+        <v>58800</v>
       </c>
       <c r="I8" s="3">
-        <v>52600</v>
+        <v>53800</v>
       </c>
       <c r="J8" s="3">
+        <v>52200</v>
+      </c>
+      <c r="K8" s="3">
         <v>68200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>40900</v>
+        <v>40300</v>
       </c>
       <c r="E9" s="3">
-        <v>33500</v>
+        <v>40600</v>
       </c>
       <c r="F9" s="3">
-        <v>39300</v>
+        <v>33200</v>
       </c>
       <c r="G9" s="3">
-        <v>38400</v>
+        <v>39000</v>
       </c>
       <c r="H9" s="3">
-        <v>35800</v>
+        <v>38200</v>
       </c>
       <c r="I9" s="3">
-        <v>38000</v>
+        <v>35600</v>
       </c>
       <c r="J9" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K9" s="3">
         <v>51000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11800</v>
+        <v>3100</v>
       </c>
       <c r="E10" s="3">
-        <v>4400</v>
+        <v>11700</v>
       </c>
       <c r="F10" s="3">
-        <v>14800</v>
+        <v>4300</v>
       </c>
       <c r="G10" s="3">
-        <v>20800</v>
+        <v>14700</v>
       </c>
       <c r="H10" s="3">
-        <v>18300</v>
+        <v>20700</v>
       </c>
       <c r="I10" s="3">
-        <v>14500</v>
+        <v>18200</v>
       </c>
       <c r="J10" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K10" s="3">
         <v>17300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="E12" s="3">
         <v>2500</v>
       </c>
       <c r="F12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G12" s="3">
         <v>2400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,37 +887,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E14" s="3">
         <v>-4400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-5200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-5000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-5800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-5500</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>2500</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>63900</v>
+        <v>62600</v>
       </c>
       <c r="E17" s="3">
-        <v>52900</v>
+        <v>63400</v>
       </c>
       <c r="F17" s="3">
-        <v>57600</v>
+        <v>52600</v>
       </c>
       <c r="G17" s="3">
-        <v>56800</v>
+        <v>57200</v>
       </c>
       <c r="H17" s="3">
-        <v>52300</v>
+        <v>56400</v>
       </c>
       <c r="I17" s="3">
-        <v>64200</v>
+        <v>52000</v>
       </c>
       <c r="J17" s="3">
+        <v>63800</v>
+      </c>
+      <c r="K17" s="3">
         <v>80800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>74500</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-11100</v>
       </c>
-      <c r="E18" s="3">
-        <v>-15100</v>
-      </c>
       <c r="F18" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-3500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1800</v>
       </c>
-      <c r="I18" s="3">
-        <v>-11600</v>
-      </c>
       <c r="J18" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-12500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,66 +1042,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E20" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6800</v>
       </c>
-      <c r="E21" s="3">
-        <v>-11000</v>
-      </c>
       <c r="F21" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
-        <v>5400</v>
-      </c>
       <c r="H21" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I21" s="3">
         <v>4100</v>
       </c>
-      <c r="I21" s="3">
-        <v>-4500</v>
-      </c>
       <c r="J21" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-9200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1076,10 +1116,10 @@
         <v>1000</v>
       </c>
       <c r="E22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="3">
         <v>600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1088,74 +1128,83 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-12200</v>
+        <v>-19500</v>
       </c>
       <c r="E23" s="3">
-        <v>-16000</v>
+        <v>-12100</v>
       </c>
       <c r="F23" s="3">
-        <v>-5500</v>
+        <v>-15900</v>
       </c>
       <c r="G23" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="H23" s="3">
         <v>1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
-        <v>100</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>4400</v>
-      </c>
       <c r="H24" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-12500</v>
+        <v>-19600</v>
       </c>
       <c r="E26" s="3">
-        <v>-16000</v>
+        <v>-12400</v>
       </c>
       <c r="F26" s="3">
-        <v>-5400</v>
+        <v>-15900</v>
       </c>
       <c r="G26" s="3">
-        <v>-2700</v>
+        <v>-5300</v>
       </c>
       <c r="H26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-12500</v>
+        <v>-19600</v>
       </c>
       <c r="E27" s="3">
-        <v>-16000</v>
+        <v>-12400</v>
       </c>
       <c r="F27" s="3">
-        <v>-5400</v>
+        <v>-15900</v>
       </c>
       <c r="G27" s="3">
-        <v>-2700</v>
+        <v>-5300</v>
       </c>
       <c r="H27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E32" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>200</v>
+      </c>
+      <c r="G32" s="3">
         <v>1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-12500</v>
+        <v>-19600</v>
       </c>
       <c r="E33" s="3">
-        <v>-16000</v>
+        <v>-12400</v>
       </c>
       <c r="F33" s="3">
-        <v>-5400</v>
+        <v>-15900</v>
       </c>
       <c r="G33" s="3">
-        <v>-2700</v>
+        <v>-5300</v>
       </c>
       <c r="H33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-12500</v>
+        <v>-19600</v>
       </c>
       <c r="E35" s="3">
-        <v>-16000</v>
+        <v>-12400</v>
       </c>
       <c r="F35" s="3">
-        <v>-5400</v>
+        <v>-15900</v>
       </c>
       <c r="G35" s="3">
-        <v>-2700</v>
+        <v>-5300</v>
       </c>
       <c r="H35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>74800</v>
+        <v>55100</v>
       </c>
       <c r="E41" s="3">
-        <v>75200</v>
+        <v>74300</v>
       </c>
       <c r="F41" s="3">
-        <v>58800</v>
+        <v>74700</v>
       </c>
       <c r="G41" s="3">
-        <v>65000</v>
+        <v>58400</v>
       </c>
       <c r="H41" s="3">
-        <v>57200</v>
+        <v>64600</v>
       </c>
       <c r="I41" s="3">
-        <v>55700</v>
+        <v>56800</v>
       </c>
       <c r="J41" s="3">
+        <v>55400</v>
+      </c>
+      <c r="K41" s="3">
         <v>60500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>72600</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,124 +1681,139 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>28100</v>
+        <v>22500</v>
       </c>
       <c r="E43" s="3">
-        <v>24700</v>
+        <v>27900</v>
       </c>
       <c r="F43" s="3">
-        <v>24300</v>
+        <v>24500</v>
       </c>
       <c r="G43" s="3">
-        <v>26700</v>
+        <v>24100</v>
       </c>
       <c r="H43" s="3">
-        <v>27300</v>
+        <v>26500</v>
       </c>
       <c r="I43" s="3">
-        <v>29700</v>
+        <v>27100</v>
       </c>
       <c r="J43" s="3">
+        <v>29500</v>
+      </c>
+      <c r="K43" s="3">
         <v>32000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>21300</v>
+      </c>
+      <c r="F44" s="3">
+        <v>20300</v>
+      </c>
+      <c r="G44" s="3">
+        <v>20400</v>
+      </c>
+      <c r="H44" s="3">
         <v>21500</v>
       </c>
-      <c r="E44" s="3">
-        <v>20400</v>
-      </c>
-      <c r="F44" s="3">
-        <v>20500</v>
-      </c>
-      <c r="G44" s="3">
-        <v>21600</v>
-      </c>
-      <c r="H44" s="3">
-        <v>22600</v>
-      </c>
       <c r="I44" s="3">
-        <v>21200</v>
+        <v>22500</v>
       </c>
       <c r="J44" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K44" s="3">
         <v>22500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E45" s="3">
         <v>8800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5400</v>
       </c>
-      <c r="H45" s="3">
-        <v>4600</v>
-      </c>
       <c r="I45" s="3">
-        <v>5200</v>
+        <v>4500</v>
       </c>
       <c r="J45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K45" s="3">
         <v>4300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>133200</v>
+        <v>110900</v>
       </c>
       <c r="E46" s="3">
-        <v>128100</v>
+        <v>132300</v>
       </c>
       <c r="F46" s="3">
-        <v>108800</v>
+        <v>127200</v>
       </c>
       <c r="G46" s="3">
-        <v>118700</v>
+        <v>108100</v>
       </c>
       <c r="H46" s="3">
-        <v>111800</v>
+        <v>117900</v>
       </c>
       <c r="I46" s="3">
-        <v>111800</v>
+        <v>111000</v>
       </c>
       <c r="J46" s="3">
+        <v>111100</v>
+      </c>
+      <c r="K46" s="3">
         <v>119300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>137800</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,66 +1841,75 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>108400</v>
+        <v>107600</v>
       </c>
       <c r="E48" s="3">
-        <v>107500</v>
+        <v>107700</v>
       </c>
       <c r="F48" s="3">
-        <v>107100</v>
+        <v>106800</v>
       </c>
       <c r="G48" s="3">
-        <v>95800</v>
+        <v>106300</v>
       </c>
       <c r="H48" s="3">
-        <v>77200</v>
+        <v>95100</v>
       </c>
       <c r="I48" s="3">
-        <v>73800</v>
+        <v>76700</v>
       </c>
       <c r="J48" s="3">
+        <v>73300</v>
+      </c>
+      <c r="K48" s="3">
         <v>79600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>76600</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12700</v>
+        <v>11900</v>
       </c>
       <c r="E49" s="3">
         <v>12600</v>
       </c>
       <c r="F49" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="G49" s="3">
-        <v>12200</v>
+        <v>12500</v>
       </c>
       <c r="H49" s="3">
         <v>12100</v>
       </c>
       <c r="I49" s="3">
-        <v>11700</v>
+        <v>12000</v>
       </c>
       <c r="J49" s="3">
-        <v>12400</v>
+        <v>11600</v>
       </c>
       <c r="K49" s="3">
         <v>12400</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6700</v>
+        <v>6200</v>
       </c>
       <c r="E52" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="F52" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G52" s="3">
         <v>6400</v>
       </c>
-      <c r="G52" s="3">
-        <v>8700</v>
-      </c>
       <c r="H52" s="3">
-        <v>14200</v>
+        <v>8600</v>
       </c>
       <c r="I52" s="3">
+        <v>14100</v>
+      </c>
+      <c r="J52" s="3">
         <v>13300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>261000</v>
+        <v>236600</v>
       </c>
       <c r="E54" s="3">
-        <v>254800</v>
+        <v>259200</v>
       </c>
       <c r="F54" s="3">
-        <v>234900</v>
+        <v>253100</v>
       </c>
       <c r="G54" s="3">
-        <v>235300</v>
+        <v>233300</v>
       </c>
       <c r="H54" s="3">
-        <v>215200</v>
+        <v>233700</v>
       </c>
       <c r="I54" s="3">
-        <v>210700</v>
+        <v>213800</v>
       </c>
       <c r="J54" s="3">
+        <v>209200</v>
+      </c>
+      <c r="K54" s="3">
         <v>225200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,48 +2095,52 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>25700</v>
+      </c>
+      <c r="F57" s="3">
+        <v>20100</v>
+      </c>
+      <c r="G57" s="3">
         <v>25900</v>
       </c>
-      <c r="E57" s="3">
-        <v>20200</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
+        <v>27000</v>
+      </c>
+      <c r="I57" s="3">
         <v>26100</v>
       </c>
-      <c r="G57" s="3">
-        <v>27200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>26200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>27900</v>
-      </c>
       <c r="J57" s="3">
+        <v>27700</v>
+      </c>
+      <c r="K57" s="3">
         <v>26100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E58" s="3">
         <v>7400</v>
       </c>
-      <c r="E58" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>10</v>
+      <c r="F58" s="3">
+        <v>1100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>10</v>
@@ -2017,130 +2151,145 @@
       <c r="I58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13700</v>
+        <v>14700</v>
       </c>
       <c r="E59" s="3">
-        <v>16300</v>
+        <v>13600</v>
       </c>
       <c r="F59" s="3">
-        <v>14100</v>
+        <v>16200</v>
       </c>
       <c r="G59" s="3">
-        <v>18900</v>
+        <v>14000</v>
       </c>
       <c r="H59" s="3">
-        <v>18600</v>
+        <v>18700</v>
       </c>
       <c r="I59" s="3">
-        <v>18600</v>
+        <v>18400</v>
       </c>
       <c r="J59" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K59" s="3">
         <v>18000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>47000</v>
+        <v>43600</v>
       </c>
       <c r="E60" s="3">
-        <v>37600</v>
+        <v>46700</v>
       </c>
       <c r="F60" s="3">
-        <v>40200</v>
+        <v>37400</v>
       </c>
       <c r="G60" s="3">
-        <v>46000</v>
+        <v>39900</v>
       </c>
       <c r="H60" s="3">
-        <v>44800</v>
+        <v>45700</v>
       </c>
       <c r="I60" s="3">
-        <v>46500</v>
+        <v>44500</v>
       </c>
       <c r="J60" s="3">
+        <v>46100</v>
+      </c>
+      <c r="K60" s="3">
         <v>44200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>50400</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>53500</v>
+        <v>51800</v>
       </c>
       <c r="E61" s="3">
-        <v>44700</v>
+        <v>53100</v>
       </c>
       <c r="F61" s="3">
+        <v>44400</v>
+      </c>
+      <c r="G61" s="3">
         <v>6500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2900</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>36000</v>
+        <v>36900</v>
       </c>
       <c r="E62" s="3">
-        <v>37300</v>
+        <v>35700</v>
       </c>
       <c r="F62" s="3">
-        <v>38700</v>
+        <v>37000</v>
       </c>
       <c r="G62" s="3">
-        <v>32400</v>
+        <v>38500</v>
       </c>
       <c r="H62" s="3">
-        <v>17500</v>
+        <v>32200</v>
       </c>
       <c r="I62" s="3">
-        <v>18600</v>
+        <v>17400</v>
       </c>
       <c r="J62" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K62" s="3">
         <v>20700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>136500</v>
+        <v>132200</v>
       </c>
       <c r="E66" s="3">
-        <v>119600</v>
+        <v>135600</v>
       </c>
       <c r="F66" s="3">
-        <v>85400</v>
+        <v>118800</v>
       </c>
       <c r="G66" s="3">
-        <v>85200</v>
+        <v>84900</v>
       </c>
       <c r="H66" s="3">
-        <v>65200</v>
+        <v>84600</v>
       </c>
       <c r="I66" s="3">
-        <v>65000</v>
+        <v>64800</v>
       </c>
       <c r="J66" s="3">
+        <v>64600</v>
+      </c>
+      <c r="K66" s="3">
         <v>64900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-102400</v>
+        <v>-121400</v>
       </c>
       <c r="E72" s="3">
-        <v>-89500</v>
+        <v>-101700</v>
       </c>
       <c r="F72" s="3">
-        <v>-73400</v>
+        <v>-88900</v>
       </c>
       <c r="G72" s="3">
-        <v>-68100</v>
+        <v>-72900</v>
       </c>
       <c r="H72" s="3">
-        <v>-65400</v>
+        <v>-67600</v>
       </c>
       <c r="I72" s="3">
-        <v>-65800</v>
+        <v>-65000</v>
       </c>
       <c r="J72" s="3">
+        <v>-65300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-59000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-49300</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>124500</v>
+        <v>104400</v>
       </c>
       <c r="E76" s="3">
-        <v>135200</v>
+        <v>123700</v>
       </c>
       <c r="F76" s="3">
-        <v>149500</v>
+        <v>134300</v>
       </c>
       <c r="G76" s="3">
-        <v>150200</v>
+        <v>148400</v>
       </c>
       <c r="H76" s="3">
-        <v>150000</v>
+        <v>149200</v>
       </c>
       <c r="I76" s="3">
-        <v>145600</v>
+        <v>149000</v>
       </c>
       <c r="J76" s="3">
+        <v>144600</v>
+      </c>
+      <c r="K76" s="3">
         <v>160300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-12500</v>
+        <v>-19600</v>
       </c>
       <c r="E81" s="3">
-        <v>-16000</v>
+        <v>-12400</v>
       </c>
       <c r="F81" s="3">
-        <v>-5400</v>
+        <v>-15900</v>
       </c>
       <c r="G81" s="3">
-        <v>-2700</v>
+        <v>-5300</v>
       </c>
       <c r="H81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4400</v>
+        <v>4900</v>
       </c>
       <c r="E83" s="3">
         <v>4400</v>
       </c>
       <c r="F83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G83" s="3">
         <v>3900</v>
-      </c>
-      <c r="G83" s="3">
-        <v>3600</v>
       </c>
       <c r="H83" s="3">
         <v>3500</v>
       </c>
       <c r="I83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J83" s="3">
         <v>4000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>3800</v>
       </c>
       <c r="K83" s="3">
         <v>3800</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
-        <v>-15500</v>
-      </c>
       <c r="F89" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="G89" s="3">
         <v>6500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3700</v>
       </c>
-      <c r="F91" s="3">
-        <v>-11800</v>
-      </c>
       <c r="G91" s="3">
-        <v>-1600</v>
+        <v>-11700</v>
       </c>
       <c r="H91" s="3">
-        <v>-5800</v>
+        <v>-1500</v>
       </c>
       <c r="I91" s="3">
-        <v>-2200</v>
+        <v>-5700</v>
       </c>
       <c r="J91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-6300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4600</v>
       </c>
-      <c r="F94" s="3">
-        <v>-12500</v>
-      </c>
       <c r="G94" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="H94" s="3">
         <v>-4200</v>
       </c>
-      <c r="H94" s="3">
-        <v>-5100</v>
-      </c>
       <c r="I94" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="J94" s="3">
         <v>-3100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-6500</v>
       </c>
       <c r="K94" s="3">
         <v>-6500</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>-6500</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3338,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E100" s="3">
         <v>9300</v>
       </c>
-      <c r="E100" s="3">
-        <v>37600</v>
-      </c>
       <c r="F100" s="3">
+        <v>37400</v>
+      </c>
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E102" s="3">
         <v>1700</v>
       </c>
-      <c r="E102" s="3">
-        <v>17900</v>
-      </c>
       <c r="F102" s="3">
+        <v>17800</v>
+      </c>
+      <c r="G102" s="3">
         <v>-6200</v>
       </c>
-      <c r="G102" s="3">
-        <v>7800</v>
-      </c>
       <c r="H102" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I102" s="3">
         <v>1500</v>
       </c>
-      <c r="I102" s="3">
-        <v>-4800</v>
-      </c>
       <c r="J102" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-12100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>43400</v>
+        <v>54700</v>
       </c>
       <c r="E8" s="3">
+        <v>43500</v>
+      </c>
+      <c r="F8" s="3">
         <v>52400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>37600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>53800</v>
       </c>
-      <c r="H8" s="3">
-        <v>58800</v>
-      </c>
       <c r="I8" s="3">
+        <v>58900</v>
+      </c>
+      <c r="J8" s="3">
         <v>53800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>52200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>68200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E9" s="3">
         <v>40300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>40600</v>
       </c>
-      <c r="F9" s="3">
-        <v>33200</v>
-      </c>
       <c r="G9" s="3">
-        <v>39000</v>
+        <v>33300</v>
       </c>
       <c r="H9" s="3">
+        <v>39100</v>
+      </c>
+      <c r="I9" s="3">
         <v>38200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>35600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>37800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>51000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E10" s="3">
         <v>3100</v>
       </c>
-      <c r="E10" s="3">
-        <v>11700</v>
-      </c>
       <c r="F10" s="3">
+        <v>11800</v>
+      </c>
+      <c r="G10" s="3">
         <v>4300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>14700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>18200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>14400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,40 +838,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E12" s="3">
         <v>2700</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2500</v>
       </c>
       <c r="F12" s="3">
         <v>2500</v>
       </c>
       <c r="G12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H12" s="3">
         <v>2400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,40 +906,46 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="3">
         <v>-3700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-4400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-5200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-5000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-5800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-5500</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>2500</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +990,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>73700</v>
+      </c>
+      <c r="E17" s="3">
         <v>62600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>63400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>52600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>57200</v>
       </c>
-      <c r="H17" s="3">
-        <v>56400</v>
-      </c>
       <c r="I17" s="3">
+        <v>56500</v>
+      </c>
+      <c r="J17" s="3">
         <v>52000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>63800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>80800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>74500</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-19200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-11100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-15000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,86 +1075,93 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-13600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-10900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E22" s="3">
         <v>1000</v>
       </c>
       <c r="F22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="3">
         <v>600</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1131,80 +1170,89 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-15900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-19600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-19600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1493,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-19600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-19600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1705,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>55100</v>
+        <v>76900</v>
       </c>
       <c r="E41" s="3">
+        <v>55200</v>
+      </c>
+      <c r="F41" s="3">
         <v>74300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>74700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>58400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>64600</v>
       </c>
-      <c r="I41" s="3">
-        <v>56800</v>
-      </c>
       <c r="J41" s="3">
+        <v>56900</v>
+      </c>
+      <c r="K41" s="3">
         <v>55400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>60500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>72600</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,136 +1773,151 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E43" s="3">
         <v>22500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>27900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>24500</v>
       </c>
-      <c r="G43" s="3">
-        <v>24100</v>
-      </c>
       <c r="H43" s="3">
+        <v>24200</v>
+      </c>
+      <c r="I43" s="3">
         <v>26500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>27100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>29500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>32000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E44" s="3">
         <v>22100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>21300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>20300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>20400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>21500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>22500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>21100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>22500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E45" s="3">
         <v>11100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5400</v>
       </c>
-      <c r="I45" s="3">
-        <v>4500</v>
-      </c>
       <c r="J45" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K45" s="3">
         <v>5100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>132300</v>
+      </c>
+      <c r="E46" s="3">
         <v>110900</v>
       </c>
-      <c r="E46" s="3">
-        <v>132300</v>
-      </c>
       <c r="F46" s="3">
+        <v>132400</v>
+      </c>
+      <c r="G46" s="3">
         <v>127200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>108100</v>
       </c>
-      <c r="H46" s="3">
-        <v>117900</v>
-      </c>
       <c r="I46" s="3">
+        <v>118000</v>
+      </c>
+      <c r="J46" s="3">
         <v>111000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>111100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>119300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>137800</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,72 +1948,81 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>107600</v>
+        <v>105200</v>
       </c>
       <c r="E48" s="3">
         <v>107700</v>
       </c>
       <c r="F48" s="3">
+        <v>107700</v>
+      </c>
+      <c r="G48" s="3">
         <v>106800</v>
       </c>
-      <c r="G48" s="3">
-        <v>106300</v>
-      </c>
       <c r="H48" s="3">
-        <v>95100</v>
+        <v>106400</v>
       </c>
       <c r="I48" s="3">
+        <v>95200</v>
+      </c>
+      <c r="J48" s="3">
         <v>76700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>73300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>79600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>76600</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E49" s="3">
         <v>11900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12600</v>
-      </c>
-      <c r="F49" s="3">
-        <v>12500</v>
       </c>
       <c r="G49" s="3">
         <v>12500</v>
       </c>
       <c r="H49" s="3">
+        <v>12500</v>
+      </c>
+      <c r="I49" s="3">
         <v>12100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11600</v>
-      </c>
-      <c r="K49" s="3">
-        <v>12400</v>
       </c>
       <c r="L49" s="3">
         <v>12400</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2088,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E52" s="3">
         <v>6200</v>
-      </c>
-      <c r="E52" s="3">
-        <v>6600</v>
       </c>
       <c r="F52" s="3">
         <v>6600</v>
       </c>
       <c r="G52" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H52" s="3">
         <v>6400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>13300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2158,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>236600</v>
+        <v>254100</v>
       </c>
       <c r="E54" s="3">
-        <v>259200</v>
+        <v>236700</v>
       </c>
       <c r="F54" s="3">
-        <v>253100</v>
+        <v>259300</v>
       </c>
       <c r="G54" s="3">
-        <v>233300</v>
+        <v>253200</v>
       </c>
       <c r="H54" s="3">
-        <v>233700</v>
+        <v>233400</v>
       </c>
       <c r="I54" s="3">
-        <v>213800</v>
+        <v>233800</v>
       </c>
       <c r="J54" s="3">
+        <v>213900</v>
+      </c>
+      <c r="K54" s="3">
         <v>209200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>225200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,54 +2225,58 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E57" s="3">
         <v>22900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>25700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>20100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>25900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>27000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>26100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>27700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>26100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E58" s="3">
         <v>5900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1100</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>10</v>
@@ -2154,142 +2287,157 @@
       <c r="J58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E59" s="3">
         <v>14700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14000</v>
       </c>
-      <c r="H59" s="3">
-        <v>18700</v>
-      </c>
       <c r="I59" s="3">
-        <v>18400</v>
+        <v>18800</v>
       </c>
       <c r="J59" s="3">
         <v>18400</v>
       </c>
       <c r="K59" s="3">
+        <v>18400</v>
+      </c>
+      <c r="L59" s="3">
         <v>18000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E60" s="3">
         <v>43600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>46700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>37400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>39900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>45700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>44500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>46100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>44200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>50400</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>85800</v>
+      </c>
+      <c r="E61" s="3">
         <v>51800</v>
       </c>
-      <c r="E61" s="3">
-        <v>53100</v>
-      </c>
       <c r="F61" s="3">
+        <v>53200</v>
+      </c>
+      <c r="G61" s="3">
         <v>44400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2900</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E62" s="3">
         <v>36900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>35700</v>
       </c>
-      <c r="F62" s="3">
-        <v>37000</v>
-      </c>
       <c r="G62" s="3">
+        <v>37100</v>
+      </c>
+      <c r="H62" s="3">
         <v>38500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>32200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>17400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2538,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>132200</v>
+        <v>167800</v>
       </c>
       <c r="E66" s="3">
+        <v>132300</v>
+      </c>
+      <c r="F66" s="3">
         <v>135600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>118800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>84900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>84600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>64800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>64600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>64900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2728,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-141800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-121400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-101700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-88900</v>
       </c>
-      <c r="G72" s="3">
-        <v>-72900</v>
-      </c>
       <c r="H72" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="I72" s="3">
         <v>-67600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-65000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-65300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-59000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-49300</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2868,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>86400</v>
+      </c>
+      <c r="E76" s="3">
         <v>104400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>123700</v>
       </c>
-      <c r="F76" s="3">
-        <v>134300</v>
-      </c>
       <c r="G76" s="3">
-        <v>148400</v>
+        <v>134400</v>
       </c>
       <c r="H76" s="3">
+        <v>148500</v>
+      </c>
+      <c r="I76" s="3">
         <v>149200</v>
       </c>
-      <c r="I76" s="3">
-        <v>149000</v>
-      </c>
       <c r="J76" s="3">
+        <v>149100</v>
+      </c>
+      <c r="K76" s="3">
         <v>144600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>160300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-19600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3030,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2842,31 +3040,34 @@
         <v>4900</v>
       </c>
       <c r="E83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F83" s="3">
         <v>4400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>3500</v>
       </c>
       <c r="I83" s="3">
         <v>3500</v>
       </c>
       <c r="J83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K83" s="3">
         <v>4000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>3800</v>
       </c>
       <c r="L83" s="3">
         <v>3800</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3238,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-15600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-15400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3290,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3393,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-6500</v>
       </c>
       <c r="L94" s="3">
         <v>-6500</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>-6500</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,40 +3583,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>9300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>37400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3382,59 +3630,65 @@
         <v>-200</v>
       </c>
       <c r="E101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-19200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>17800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-12100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,180 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>54700</v>
+        <v>50000</v>
       </c>
       <c r="E8" s="3">
-        <v>43500</v>
+        <v>56000</v>
       </c>
       <c r="F8" s="3">
-        <v>52400</v>
+        <v>44500</v>
       </c>
       <c r="G8" s="3">
-        <v>37600</v>
+        <v>53600</v>
       </c>
       <c r="H8" s="3">
+        <v>38500</v>
+      </c>
+      <c r="I8" s="3">
+        <v>55000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>60300</v>
+      </c>
+      <c r="K8" s="3">
         <v>53800</v>
       </c>
-      <c r="I8" s="3">
-        <v>58900</v>
-      </c>
-      <c r="J8" s="3">
-        <v>53800</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>52200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>68200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>44000</v>
+        <v>45700</v>
       </c>
       <c r="E9" s="3">
-        <v>40300</v>
+        <v>45000</v>
       </c>
       <c r="F9" s="3">
-        <v>40600</v>
+        <v>41300</v>
       </c>
       <c r="G9" s="3">
-        <v>33300</v>
+        <v>41600</v>
       </c>
       <c r="H9" s="3">
+        <v>34000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>40000</v>
+      </c>
+      <c r="J9" s="3">
         <v>39100</v>
       </c>
-      <c r="I9" s="3">
-        <v>38200</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>35600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>37800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>51000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10700</v>
+        <v>4300</v>
       </c>
       <c r="E10" s="3">
-        <v>3100</v>
+        <v>10900</v>
       </c>
       <c r="F10" s="3">
-        <v>11800</v>
+        <v>3200</v>
       </c>
       <c r="G10" s="3">
-        <v>4300</v>
+        <v>12000</v>
       </c>
       <c r="H10" s="3">
-        <v>14700</v>
+        <v>4400</v>
       </c>
       <c r="I10" s="3">
-        <v>20700</v>
+        <v>15100</v>
       </c>
       <c r="J10" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K10" s="3">
         <v>18200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -848,34 +862,37 @@
         <v>2800</v>
       </c>
       <c r="E12" s="3">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="F12" s="3">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="G12" s="3">
         <v>2500</v>
       </c>
       <c r="H12" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="I12" s="3">
         <v>2500</v>
       </c>
       <c r="J12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K12" s="3">
         <v>2700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,43 +926,49 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>500</v>
+        <v>4100</v>
       </c>
       <c r="E14" s="3">
-        <v>-3700</v>
+        <v>600</v>
       </c>
       <c r="F14" s="3">
-        <v>-4400</v>
+        <v>-3800</v>
       </c>
       <c r="G14" s="3">
-        <v>-5200</v>
+        <v>-4500</v>
       </c>
       <c r="H14" s="3">
-        <v>-5000</v>
+        <v>-5300</v>
       </c>
       <c r="I14" s="3">
-        <v>-5800</v>
+        <v>-5100</v>
       </c>
       <c r="J14" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K14" s="3">
         <v>-5500</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>2500</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>73700</v>
+        <v>77300</v>
       </c>
       <c r="E17" s="3">
-        <v>62600</v>
+        <v>75500</v>
       </c>
       <c r="F17" s="3">
-        <v>63400</v>
+        <v>64100</v>
       </c>
       <c r="G17" s="3">
-        <v>52600</v>
+        <v>64900</v>
       </c>
       <c r="H17" s="3">
-        <v>57200</v>
+        <v>53800</v>
       </c>
       <c r="I17" s="3">
-        <v>56500</v>
+        <v>58600</v>
       </c>
       <c r="J17" s="3">
+        <v>57800</v>
+      </c>
+      <c r="K17" s="3">
         <v>52000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>63800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>80800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>74500</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-19100</v>
+        <v>-27400</v>
       </c>
       <c r="E18" s="3">
-        <v>-19200</v>
+        <v>-19500</v>
       </c>
       <c r="F18" s="3">
-        <v>-11100</v>
+        <v>-19600</v>
       </c>
       <c r="G18" s="3">
-        <v>-15000</v>
+        <v>-11300</v>
       </c>
       <c r="H18" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-3500</v>
       </c>
-      <c r="I18" s="3">
-        <v>2400</v>
-      </c>
       <c r="J18" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K18" s="3">
         <v>1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,95 +1109,102 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-700</v>
+        <v>-1000</v>
       </c>
       <c r="E20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-1800</v>
+        <v>-300</v>
       </c>
       <c r="I20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-14900</v>
+        <v>-22300</v>
       </c>
       <c r="E21" s="3">
-        <v>-13600</v>
+        <v>-15200</v>
       </c>
       <c r="F21" s="3">
-        <v>-6800</v>
+        <v>-13900</v>
       </c>
       <c r="G21" s="3">
-        <v>-10900</v>
+        <v>-6900</v>
       </c>
       <c r="H21" s="3">
-        <v>-1400</v>
+        <v>-11200</v>
       </c>
       <c r="I21" s="3">
-        <v>5300</v>
+        <v>-1500</v>
       </c>
       <c r="J21" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K21" s="3">
         <v>4100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-9200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>600</v>
-      </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1173,86 +1213,95 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-21100</v>
+        <v>-30100</v>
       </c>
       <c r="E23" s="3">
-        <v>-19500</v>
+        <v>-21600</v>
       </c>
       <c r="F23" s="3">
-        <v>-12100</v>
+        <v>-20000</v>
       </c>
       <c r="G23" s="3">
-        <v>-15900</v>
+        <v>-12400</v>
       </c>
       <c r="H23" s="3">
-        <v>-5400</v>
+        <v>-16300</v>
       </c>
       <c r="I23" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="J23" s="3">
         <v>1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>4300</v>
-      </c>
       <c r="J24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-3400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-20400</v>
+        <v>-30100</v>
       </c>
       <c r="E26" s="3">
-        <v>-19600</v>
+        <v>-20900</v>
       </c>
       <c r="F26" s="3">
-        <v>-12400</v>
+        <v>-20100</v>
       </c>
       <c r="G26" s="3">
-        <v>-15900</v>
+        <v>-12700</v>
       </c>
       <c r="H26" s="3">
-        <v>-5300</v>
+        <v>-16300</v>
       </c>
       <c r="I26" s="3">
-        <v>-2600</v>
+        <v>-5400</v>
       </c>
       <c r="J26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-20400</v>
+        <v>-30100</v>
       </c>
       <c r="E27" s="3">
-        <v>-19600</v>
+        <v>-20900</v>
       </c>
       <c r="F27" s="3">
-        <v>-12400</v>
+        <v>-20100</v>
       </c>
       <c r="G27" s="3">
-        <v>-15900</v>
+        <v>-12700</v>
       </c>
       <c r="H27" s="3">
-        <v>-5300</v>
+        <v>-16300</v>
       </c>
       <c r="I27" s="3">
-        <v>-2600</v>
+        <v>-5400</v>
       </c>
       <c r="J27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,78 +1563,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E32" s="3">
+        <v>800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="I32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-20400</v>
+        <v>-30100</v>
       </c>
       <c r="E33" s="3">
-        <v>-19600</v>
+        <v>-20900</v>
       </c>
       <c r="F33" s="3">
-        <v>-12400</v>
+        <v>-20100</v>
       </c>
       <c r="G33" s="3">
-        <v>-15900</v>
+        <v>-12700</v>
       </c>
       <c r="H33" s="3">
-        <v>-5300</v>
+        <v>-16300</v>
       </c>
       <c r="I33" s="3">
-        <v>-2600</v>
+        <v>-5400</v>
       </c>
       <c r="J33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-20400</v>
+        <v>-30100</v>
       </c>
       <c r="E35" s="3">
-        <v>-19600</v>
+        <v>-20900</v>
       </c>
       <c r="F35" s="3">
-        <v>-12400</v>
+        <v>-20100</v>
       </c>
       <c r="G35" s="3">
-        <v>-15900</v>
+        <v>-12700</v>
       </c>
       <c r="H35" s="3">
-        <v>-5300</v>
+        <v>-16300</v>
       </c>
       <c r="I35" s="3">
-        <v>-2600</v>
+        <v>-5400</v>
       </c>
       <c r="J35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,43 +1792,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>76900</v>
+        <v>50700</v>
       </c>
       <c r="E41" s="3">
-        <v>55200</v>
+        <v>78700</v>
       </c>
       <c r="F41" s="3">
-        <v>74300</v>
+        <v>56500</v>
       </c>
       <c r="G41" s="3">
-        <v>74700</v>
+        <v>76100</v>
       </c>
       <c r="H41" s="3">
-        <v>58400</v>
+        <v>76500</v>
       </c>
       <c r="I41" s="3">
-        <v>64600</v>
+        <v>59800</v>
       </c>
       <c r="J41" s="3">
+        <v>66100</v>
+      </c>
+      <c r="K41" s="3">
         <v>56900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>55400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>60500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>72600</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,148 +1866,163 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22400</v>
+        <v>29500</v>
       </c>
       <c r="E43" s="3">
-        <v>22500</v>
+        <v>22900</v>
       </c>
       <c r="F43" s="3">
-        <v>27900</v>
+        <v>23100</v>
       </c>
       <c r="G43" s="3">
-        <v>24500</v>
+        <v>28600</v>
       </c>
       <c r="H43" s="3">
-        <v>24200</v>
+        <v>25100</v>
       </c>
       <c r="I43" s="3">
-        <v>26500</v>
+        <v>24700</v>
       </c>
       <c r="J43" s="3">
         <v>27100</v>
       </c>
       <c r="K43" s="3">
+        <v>27100</v>
+      </c>
+      <c r="L43" s="3">
         <v>29500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>32000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>23500</v>
+        <v>28800</v>
       </c>
       <c r="E44" s="3">
-        <v>22100</v>
+        <v>24100</v>
       </c>
       <c r="F44" s="3">
-        <v>21300</v>
+        <v>22700</v>
       </c>
       <c r="G44" s="3">
-        <v>20300</v>
+        <v>21900</v>
       </c>
       <c r="H44" s="3">
-        <v>20400</v>
+        <v>20800</v>
       </c>
       <c r="I44" s="3">
-        <v>21500</v>
+        <v>20800</v>
       </c>
       <c r="J44" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K44" s="3">
         <v>22500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>21100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>22500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9500</v>
+        <v>10100</v>
       </c>
       <c r="E45" s="3">
-        <v>11100</v>
+        <v>9800</v>
       </c>
       <c r="F45" s="3">
-        <v>8800</v>
+        <v>11300</v>
       </c>
       <c r="G45" s="3">
-        <v>7700</v>
+        <v>9000</v>
       </c>
       <c r="H45" s="3">
-        <v>5200</v>
+        <v>7900</v>
       </c>
       <c r="I45" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="J45" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K45" s="3">
         <v>4600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>132300</v>
+        <v>119100</v>
       </c>
       <c r="E46" s="3">
-        <v>110900</v>
+        <v>135400</v>
       </c>
       <c r="F46" s="3">
-        <v>132400</v>
+        <v>113500</v>
       </c>
       <c r="G46" s="3">
-        <v>127200</v>
+        <v>135500</v>
       </c>
       <c r="H46" s="3">
-        <v>108100</v>
+        <v>130200</v>
       </c>
       <c r="I46" s="3">
-        <v>118000</v>
+        <v>110700</v>
       </c>
       <c r="J46" s="3">
+        <v>120700</v>
+      </c>
+      <c r="K46" s="3">
         <v>111000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>111100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>119300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>137800</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,8 +2056,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1963,66 +2071,72 @@
         <v>107700</v>
       </c>
       <c r="F48" s="3">
-        <v>107700</v>
+        <v>110200</v>
       </c>
       <c r="G48" s="3">
-        <v>106800</v>
+        <v>110300</v>
       </c>
       <c r="H48" s="3">
-        <v>106400</v>
+        <v>109400</v>
       </c>
       <c r="I48" s="3">
-        <v>95200</v>
+        <v>108900</v>
       </c>
       <c r="J48" s="3">
+        <v>97400</v>
+      </c>
+      <c r="K48" s="3">
         <v>76700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>73300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>79600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>76600</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9400</v>
+        <v>8800</v>
       </c>
       <c r="E49" s="3">
-        <v>11900</v>
+        <v>9600</v>
       </c>
       <c r="F49" s="3">
-        <v>12600</v>
+        <v>12200</v>
       </c>
       <c r="G49" s="3">
-        <v>12500</v>
+        <v>12900</v>
       </c>
       <c r="H49" s="3">
-        <v>12500</v>
+        <v>12800</v>
       </c>
       <c r="I49" s="3">
-        <v>12100</v>
+        <v>12800</v>
       </c>
       <c r="J49" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K49" s="3">
         <v>12000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11600</v>
-      </c>
-      <c r="L49" s="3">
-        <v>12400</v>
       </c>
       <c r="M49" s="3">
         <v>12400</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,43 +2208,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7200</v>
+        <v>7500</v>
       </c>
       <c r="E52" s="3">
-        <v>6200</v>
+        <v>7400</v>
       </c>
       <c r="F52" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="G52" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="H52" s="3">
-        <v>6400</v>
+        <v>6800</v>
       </c>
       <c r="I52" s="3">
-        <v>8600</v>
+        <v>6500</v>
       </c>
       <c r="J52" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K52" s="3">
         <v>14100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,43 +2284,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>254100</v>
+        <v>240600</v>
       </c>
       <c r="E54" s="3">
-        <v>236700</v>
+        <v>260100</v>
       </c>
       <c r="F54" s="3">
-        <v>259300</v>
+        <v>242300</v>
       </c>
       <c r="G54" s="3">
-        <v>253200</v>
+        <v>265500</v>
       </c>
       <c r="H54" s="3">
-        <v>233400</v>
+        <v>259200</v>
       </c>
       <c r="I54" s="3">
-        <v>233800</v>
+        <v>238900</v>
       </c>
       <c r="J54" s="3">
+        <v>239300</v>
+      </c>
+      <c r="K54" s="3">
         <v>213900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>209200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>225200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,60 +2356,64 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>29000</v>
+        <v>31900</v>
       </c>
       <c r="E57" s="3">
-        <v>22900</v>
+        <v>29700</v>
       </c>
       <c r="F57" s="3">
-        <v>25700</v>
+        <v>23500</v>
       </c>
       <c r="G57" s="3">
-        <v>20100</v>
+        <v>26300</v>
       </c>
       <c r="H57" s="3">
-        <v>25900</v>
+        <v>20500</v>
       </c>
       <c r="I57" s="3">
-        <v>27000</v>
+        <v>26500</v>
       </c>
       <c r="J57" s="3">
+        <v>27600</v>
+      </c>
+      <c r="K57" s="3">
         <v>26100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>27700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>26100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8500</v>
+        <v>4300</v>
       </c>
       <c r="E58" s="3">
-        <v>5900</v>
+        <v>8700</v>
       </c>
       <c r="F58" s="3">
-        <v>7400</v>
+        <v>6100</v>
       </c>
       <c r="G58" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>10</v>
+        <v>7500</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1200</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>10</v>
@@ -2290,154 +2424,169 @@
       <c r="K58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9800</v>
+        <v>18600</v>
       </c>
       <c r="E59" s="3">
-        <v>14700</v>
+        <v>10000</v>
       </c>
       <c r="F59" s="3">
-        <v>13600</v>
+        <v>15100</v>
       </c>
       <c r="G59" s="3">
-        <v>16200</v>
+        <v>14000</v>
       </c>
       <c r="H59" s="3">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="I59" s="3">
-        <v>18800</v>
+        <v>14300</v>
       </c>
       <c r="J59" s="3">
-        <v>18400</v>
+        <v>19200</v>
       </c>
       <c r="K59" s="3">
         <v>18400</v>
       </c>
       <c r="L59" s="3">
+        <v>18400</v>
+      </c>
+      <c r="M59" s="3">
         <v>18000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>47300</v>
+        <v>54800</v>
       </c>
       <c r="E60" s="3">
-        <v>43600</v>
+        <v>48400</v>
       </c>
       <c r="F60" s="3">
-        <v>46700</v>
+        <v>44600</v>
       </c>
       <c r="G60" s="3">
-        <v>37400</v>
+        <v>47800</v>
       </c>
       <c r="H60" s="3">
-        <v>39900</v>
+        <v>38300</v>
       </c>
       <c r="I60" s="3">
-        <v>45700</v>
+        <v>40900</v>
       </c>
       <c r="J60" s="3">
+        <v>46800</v>
+      </c>
+      <c r="K60" s="3">
         <v>44500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>46100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>44200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>50400</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>85800</v>
+        <v>88300</v>
       </c>
       <c r="E61" s="3">
-        <v>51800</v>
+        <v>87800</v>
       </c>
       <c r="F61" s="3">
-        <v>53200</v>
+        <v>53000</v>
       </c>
       <c r="G61" s="3">
-        <v>44400</v>
+        <v>54400</v>
       </c>
       <c r="H61" s="3">
-        <v>6500</v>
+        <v>45400</v>
       </c>
       <c r="I61" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="J61" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K61" s="3">
         <v>2900</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>34700</v>
+        <v>37200</v>
       </c>
       <c r="E62" s="3">
-        <v>36900</v>
+        <v>35600</v>
       </c>
       <c r="F62" s="3">
-        <v>35700</v>
+        <v>37800</v>
       </c>
       <c r="G62" s="3">
-        <v>37100</v>
+        <v>36600</v>
       </c>
       <c r="H62" s="3">
-        <v>38500</v>
+        <v>37900</v>
       </c>
       <c r="I62" s="3">
-        <v>32200</v>
+        <v>39400</v>
       </c>
       <c r="J62" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K62" s="3">
         <v>17400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>20700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>167800</v>
+        <v>180200</v>
       </c>
       <c r="E66" s="3">
-        <v>132300</v>
+        <v>171800</v>
       </c>
       <c r="F66" s="3">
-        <v>135600</v>
+        <v>135400</v>
       </c>
       <c r="G66" s="3">
-        <v>118800</v>
+        <v>138800</v>
       </c>
       <c r="H66" s="3">
-        <v>84900</v>
+        <v>121600</v>
       </c>
       <c r="I66" s="3">
-        <v>84600</v>
+        <v>86900</v>
       </c>
       <c r="J66" s="3">
+        <v>86600</v>
+      </c>
+      <c r="K66" s="3">
         <v>64800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>64600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>64900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-141800</v>
+        <v>-175200</v>
       </c>
       <c r="E72" s="3">
-        <v>-121400</v>
+        <v>-145200</v>
       </c>
       <c r="F72" s="3">
-        <v>-101700</v>
+        <v>-124300</v>
       </c>
       <c r="G72" s="3">
-        <v>-88900</v>
+        <v>-104100</v>
       </c>
       <c r="H72" s="3">
-        <v>-73000</v>
+        <v>-91000</v>
       </c>
       <c r="I72" s="3">
-        <v>-67600</v>
+        <v>-74700</v>
       </c>
       <c r="J72" s="3">
+        <v>-69200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-65000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-65300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-59000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-49300</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>86400</v>
+        <v>60400</v>
       </c>
       <c r="E76" s="3">
-        <v>104400</v>
+        <v>88400</v>
       </c>
       <c r="F76" s="3">
-        <v>123700</v>
+        <v>106900</v>
       </c>
       <c r="G76" s="3">
-        <v>134400</v>
+        <v>126700</v>
       </c>
       <c r="H76" s="3">
-        <v>148500</v>
+        <v>137500</v>
       </c>
       <c r="I76" s="3">
-        <v>149200</v>
+        <v>152000</v>
       </c>
       <c r="J76" s="3">
+        <v>152700</v>
+      </c>
+      <c r="K76" s="3">
         <v>149100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>144600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>160300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-20400</v>
+        <v>-30100</v>
       </c>
       <c r="E81" s="3">
-        <v>-19600</v>
+        <v>-20900</v>
       </c>
       <c r="F81" s="3">
-        <v>-12400</v>
+        <v>-20100</v>
       </c>
       <c r="G81" s="3">
-        <v>-15900</v>
+        <v>-12700</v>
       </c>
       <c r="H81" s="3">
-        <v>-5300</v>
+        <v>-16300</v>
       </c>
       <c r="I81" s="3">
-        <v>-2600</v>
+        <v>-5400</v>
       </c>
       <c r="J81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,43 +3229,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4900</v>
+        <v>6000</v>
       </c>
       <c r="E83" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="F83" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H83" s="3">
         <v>4400</v>
       </c>
-      <c r="G83" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>3900</v>
-      </c>
       <c r="I83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K83" s="3">
         <v>3500</v>
       </c>
-      <c r="J83" s="3">
-        <v>3500</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>3800</v>
       </c>
       <c r="M83" s="3">
         <v>3800</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-8900</v>
+        <v>-24800</v>
       </c>
       <c r="E89" s="3">
-        <v>-15600</v>
+        <v>-9100</v>
       </c>
       <c r="F89" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
-        <v>-15400</v>
-      </c>
       <c r="H89" s="3">
-        <v>6500</v>
+        <v>-15800</v>
       </c>
       <c r="I89" s="3">
-        <v>7400</v>
+        <v>6600</v>
       </c>
       <c r="J89" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K89" s="3">
         <v>3000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,43 +3511,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>12700</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>-2200</v>
+        <v>13000</v>
       </c>
       <c r="F91" s="3">
-        <v>-7400</v>
+        <v>-2300</v>
       </c>
       <c r="G91" s="3">
-        <v>-3700</v>
+        <v>-7600</v>
       </c>
       <c r="H91" s="3">
-        <v>-11700</v>
+        <v>-3800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1500</v>
+        <v>-12000</v>
       </c>
       <c r="J91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2500</v>
+        <v>-2100</v>
       </c>
       <c r="E94" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="F94" s="3">
-        <v>-8200</v>
+        <v>-2800</v>
       </c>
       <c r="G94" s="3">
-        <v>-4600</v>
+        <v>-8400</v>
       </c>
       <c r="H94" s="3">
-        <v>-12400</v>
+        <v>-4700</v>
       </c>
       <c r="I94" s="3">
-        <v>-4200</v>
+        <v>-12700</v>
       </c>
       <c r="J94" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-6500</v>
       </c>
       <c r="M94" s="3">
         <v>-6500</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>-6500</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,109 +3829,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>33600</v>
+        <v>-1100</v>
       </c>
       <c r="E100" s="3">
+        <v>34400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-700</v>
       </c>
-      <c r="F100" s="3">
-        <v>9300</v>
-      </c>
       <c r="G100" s="3">
-        <v>37400</v>
+        <v>9500</v>
       </c>
       <c r="H100" s="3">
+        <v>38300</v>
+      </c>
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
-        <v>4400</v>
-      </c>
       <c r="J100" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K100" s="3">
         <v>3200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="E101" s="3">
         <v>-200</v>
       </c>
       <c r="F101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>22100</v>
+        <v>-27800</v>
       </c>
       <c r="E102" s="3">
-        <v>-19200</v>
+        <v>22600</v>
       </c>
       <c r="F102" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="G102" s="3">
         <v>1700</v>
       </c>
-      <c r="G102" s="3">
-        <v>17800</v>
-      </c>
       <c r="H102" s="3">
-        <v>-6200</v>
+        <v>18200</v>
       </c>
       <c r="I102" s="3">
-        <v>7700</v>
+        <v>-6300</v>
       </c>
       <c r="J102" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K102" s="3">
         <v>1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-12100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>50000</v>
+        <v>57800</v>
       </c>
       <c r="E8" s="3">
-        <v>56000</v>
+        <v>49500</v>
       </c>
       <c r="F8" s="3">
-        <v>44500</v>
+        <v>55400</v>
       </c>
       <c r="G8" s="3">
-        <v>53600</v>
+        <v>44100</v>
       </c>
       <c r="H8" s="3">
-        <v>38500</v>
+        <v>53100</v>
       </c>
       <c r="I8" s="3">
-        <v>55000</v>
+        <v>38100</v>
       </c>
       <c r="J8" s="3">
+        <v>54500</v>
+      </c>
+      <c r="K8" s="3">
         <v>60300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>53800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>52200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>68200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>45700</v>
+        <v>49700</v>
       </c>
       <c r="E9" s="3">
-        <v>45000</v>
+        <v>45200</v>
       </c>
       <c r="F9" s="3">
-        <v>41300</v>
+        <v>44600</v>
       </c>
       <c r="G9" s="3">
-        <v>41600</v>
+        <v>40900</v>
       </c>
       <c r="H9" s="3">
-        <v>34000</v>
+        <v>41200</v>
       </c>
       <c r="I9" s="3">
-        <v>40000</v>
+        <v>33700</v>
       </c>
       <c r="J9" s="3">
+        <v>39600</v>
+      </c>
+      <c r="K9" s="3">
         <v>39100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>35600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>37800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>51000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E10" s="3">
         <v>4300</v>
       </c>
-      <c r="E10" s="3">
-        <v>10900</v>
-      </c>
       <c r="F10" s="3">
+        <v>10800</v>
+      </c>
+      <c r="G10" s="3">
         <v>3200</v>
       </c>
-      <c r="G10" s="3">
-        <v>12000</v>
-      </c>
       <c r="H10" s="3">
+        <v>11900</v>
+      </c>
+      <c r="I10" s="3">
         <v>4400</v>
       </c>
-      <c r="I10" s="3">
-        <v>15100</v>
-      </c>
       <c r="J10" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K10" s="3">
         <v>21200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>17300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,22 +866,23 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E12" s="3">
         <v>2800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2800</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2500</v>
       </c>
       <c r="H12" s="3">
         <v>2500</v>
@@ -877,22 +891,25 @@
         <v>2500</v>
       </c>
       <c r="J12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K12" s="3">
         <v>2600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -929,46 +946,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>4100</v>
+        <v>6600</v>
       </c>
       <c r="E14" s="3">
-        <v>600</v>
+        <v>4000</v>
       </c>
       <c r="F14" s="3">
+        <v>500</v>
+      </c>
+      <c r="G14" s="3">
         <v>-3800</v>
       </c>
-      <c r="G14" s="3">
-        <v>-4500</v>
-      </c>
       <c r="H14" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I14" s="3">
         <v>-5300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-5100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-5900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-5500</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>2500</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>77300</v>
+        <v>82600</v>
       </c>
       <c r="E17" s="3">
-        <v>75500</v>
+        <v>76600</v>
       </c>
       <c r="F17" s="3">
-        <v>64100</v>
+        <v>74800</v>
       </c>
       <c r="G17" s="3">
-        <v>64900</v>
+        <v>63500</v>
       </c>
       <c r="H17" s="3">
-        <v>53800</v>
+        <v>64300</v>
       </c>
       <c r="I17" s="3">
-        <v>58600</v>
+        <v>53300</v>
       </c>
       <c r="J17" s="3">
+        <v>58000</v>
+      </c>
+      <c r="K17" s="3">
         <v>57800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>52000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>63800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>80800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>74500</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-27400</v>
+        <v>-24800</v>
       </c>
       <c r="E18" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-19500</v>
       </c>
-      <c r="F18" s="3">
-        <v>-19600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-11300</v>
-      </c>
       <c r="H18" s="3">
-        <v>-15300</v>
+        <v>-11200</v>
       </c>
       <c r="I18" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-3500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,84 +1143,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1000</v>
+        <v>1600</v>
       </c>
       <c r="E20" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-22300</v>
+        <v>-18900</v>
       </c>
       <c r="E21" s="3">
-        <v>-15200</v>
+        <v>-22100</v>
       </c>
       <c r="F21" s="3">
-        <v>-13900</v>
+        <v>-15100</v>
       </c>
       <c r="G21" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="H21" s="3">
         <v>-6900</v>
       </c>
-      <c r="H21" s="3">
-        <v>-11200</v>
-      </c>
       <c r="I21" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-9200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1195,19 +1235,19 @@
         <v>1700</v>
       </c>
       <c r="E22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="3">
-        <v>700</v>
-      </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1216,54 +1256,60 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-30100</v>
+        <v>-24900</v>
       </c>
       <c r="E23" s="3">
-        <v>-21600</v>
+        <v>-29800</v>
       </c>
       <c r="F23" s="3">
-        <v>-20000</v>
+        <v>-21400</v>
       </c>
       <c r="G23" s="3">
-        <v>-12400</v>
+        <v>-19800</v>
       </c>
       <c r="H23" s="3">
-        <v>-16300</v>
+        <v>-12300</v>
       </c>
       <c r="I23" s="3">
-        <v>-5600</v>
+        <v>-16100</v>
       </c>
       <c r="J23" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1271,37 +1317,40 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-30100</v>
+        <v>-24900</v>
       </c>
       <c r="E26" s="3">
-        <v>-20900</v>
+        <v>-29800</v>
       </c>
       <c r="F26" s="3">
-        <v>-20100</v>
+        <v>-20700</v>
       </c>
       <c r="G26" s="3">
-        <v>-12700</v>
+        <v>-19900</v>
       </c>
       <c r="H26" s="3">
-        <v>-16300</v>
+        <v>-12600</v>
       </c>
       <c r="I26" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-5400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-30100</v>
+        <v>-24900</v>
       </c>
       <c r="E27" s="3">
-        <v>-20900</v>
+        <v>-29800</v>
       </c>
       <c r="F27" s="3">
-        <v>-20100</v>
+        <v>-20700</v>
       </c>
       <c r="G27" s="3">
-        <v>-12700</v>
+        <v>-19900</v>
       </c>
       <c r="H27" s="3">
-        <v>-16300</v>
+        <v>-12600</v>
       </c>
       <c r="I27" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-5400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1000</v>
+        <v>-1600</v>
       </c>
       <c r="E32" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F32" s="3">
+        <v>700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-30100</v>
+        <v>-24900</v>
       </c>
       <c r="E33" s="3">
-        <v>-20900</v>
+        <v>-29800</v>
       </c>
       <c r="F33" s="3">
-        <v>-20100</v>
+        <v>-20700</v>
       </c>
       <c r="G33" s="3">
-        <v>-12700</v>
+        <v>-19900</v>
       </c>
       <c r="H33" s="3">
-        <v>-16300</v>
+        <v>-12600</v>
       </c>
       <c r="I33" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-5400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-30100</v>
+        <v>-24900</v>
       </c>
       <c r="E35" s="3">
-        <v>-20900</v>
+        <v>-29800</v>
       </c>
       <c r="F35" s="3">
-        <v>-20100</v>
+        <v>-20700</v>
       </c>
       <c r="G35" s="3">
-        <v>-12700</v>
+        <v>-19900</v>
       </c>
       <c r="H35" s="3">
-        <v>-16300</v>
+        <v>-12600</v>
       </c>
       <c r="I35" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-5400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>50700</v>
+        <v>25500</v>
       </c>
       <c r="E41" s="3">
-        <v>78700</v>
+        <v>50200</v>
       </c>
       <c r="F41" s="3">
-        <v>56500</v>
+        <v>77900</v>
       </c>
       <c r="G41" s="3">
-        <v>76100</v>
+        <v>55900</v>
       </c>
       <c r="H41" s="3">
-        <v>76500</v>
+        <v>75400</v>
       </c>
       <c r="I41" s="3">
-        <v>59800</v>
+        <v>75800</v>
       </c>
       <c r="J41" s="3">
+        <v>59300</v>
+      </c>
+      <c r="K41" s="3">
         <v>66100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>56900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>55400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>60500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>72600</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,160 +1959,175 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>29500</v>
+        <v>25400</v>
       </c>
       <c r="E43" s="3">
+        <v>29200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>22700</v>
+      </c>
+      <c r="G43" s="3">
         <v>22900</v>
       </c>
-      <c r="F43" s="3">
-        <v>23100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>28600</v>
-      </c>
       <c r="H43" s="3">
-        <v>25100</v>
+        <v>28300</v>
       </c>
       <c r="I43" s="3">
-        <v>24700</v>
+        <v>24900</v>
       </c>
       <c r="J43" s="3">
-        <v>27100</v>
+        <v>24500</v>
       </c>
       <c r="K43" s="3">
         <v>27100</v>
       </c>
       <c r="L43" s="3">
+        <v>27100</v>
+      </c>
+      <c r="M43" s="3">
         <v>29500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>32000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>28800</v>
+        <v>32700</v>
       </c>
       <c r="E44" s="3">
-        <v>24100</v>
+        <v>28600</v>
       </c>
       <c r="F44" s="3">
-        <v>22700</v>
+        <v>23900</v>
       </c>
       <c r="G44" s="3">
-        <v>21900</v>
+        <v>22500</v>
       </c>
       <c r="H44" s="3">
-        <v>20800</v>
+        <v>21700</v>
       </c>
       <c r="I44" s="3">
-        <v>20800</v>
+        <v>20600</v>
       </c>
       <c r="J44" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K44" s="3">
         <v>22000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>22500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>21100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>22500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10100</v>
+        <v>11000</v>
       </c>
       <c r="E45" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="F45" s="3">
-        <v>11300</v>
+        <v>9700</v>
       </c>
       <c r="G45" s="3">
-        <v>9000</v>
+        <v>11200</v>
       </c>
       <c r="H45" s="3">
-        <v>7900</v>
+        <v>8900</v>
       </c>
       <c r="I45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J45" s="3">
         <v>5300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>119100</v>
+        <v>94700</v>
       </c>
       <c r="E46" s="3">
-        <v>135400</v>
+        <v>118000</v>
       </c>
       <c r="F46" s="3">
-        <v>113500</v>
+        <v>134200</v>
       </c>
       <c r="G46" s="3">
-        <v>135500</v>
+        <v>112500</v>
       </c>
       <c r="H46" s="3">
-        <v>130200</v>
+        <v>134300</v>
       </c>
       <c r="I46" s="3">
-        <v>110700</v>
+        <v>129000</v>
       </c>
       <c r="J46" s="3">
+        <v>109700</v>
+      </c>
+      <c r="K46" s="3">
         <v>120700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>111000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>111100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>119300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>137800</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,84 +2164,93 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>105200</v>
+        <v>99800</v>
       </c>
       <c r="E48" s="3">
-        <v>107700</v>
+        <v>104300</v>
       </c>
       <c r="F48" s="3">
-        <v>110200</v>
+        <v>106700</v>
       </c>
       <c r="G48" s="3">
-        <v>110300</v>
+        <v>109200</v>
       </c>
       <c r="H48" s="3">
-        <v>109400</v>
+        <v>109300</v>
       </c>
       <c r="I48" s="3">
-        <v>108900</v>
+        <v>108300</v>
       </c>
       <c r="J48" s="3">
+        <v>107900</v>
+      </c>
+      <c r="K48" s="3">
         <v>97400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>76700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>73300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>79600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>76600</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8800</v>
+        <v>8100</v>
       </c>
       <c r="E49" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F49" s="3">
         <v>9600</v>
       </c>
-      <c r="F49" s="3">
-        <v>12200</v>
-      </c>
       <c r="G49" s="3">
-        <v>12900</v>
+        <v>12100</v>
       </c>
       <c r="H49" s="3">
         <v>12800</v>
       </c>
       <c r="I49" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="J49" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K49" s="3">
         <v>12400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11600</v>
-      </c>
-      <c r="M49" s="3">
-        <v>12400</v>
       </c>
       <c r="N49" s="3">
         <v>12400</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,46 +2328,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E52" s="3">
         <v>7500</v>
       </c>
-      <c r="E52" s="3">
-        <v>7400</v>
-      </c>
       <c r="F52" s="3">
-        <v>6400</v>
+        <v>7300</v>
       </c>
       <c r="G52" s="3">
-        <v>6800</v>
+        <v>6300</v>
       </c>
       <c r="H52" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="I52" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J52" s="3">
         <v>6500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>240600</v>
+        <v>209900</v>
       </c>
       <c r="E54" s="3">
-        <v>260100</v>
+        <v>238400</v>
       </c>
       <c r="F54" s="3">
-        <v>242300</v>
+        <v>257800</v>
       </c>
       <c r="G54" s="3">
-        <v>265500</v>
+        <v>240100</v>
       </c>
       <c r="H54" s="3">
-        <v>259200</v>
+        <v>263000</v>
       </c>
       <c r="I54" s="3">
-        <v>238900</v>
+        <v>256800</v>
       </c>
       <c r="J54" s="3">
+        <v>236700</v>
+      </c>
+      <c r="K54" s="3">
         <v>239300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>213900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>209200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>225200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,46 +2487,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>31900</v>
+        <v>31700</v>
       </c>
       <c r="E57" s="3">
-        <v>29700</v>
+        <v>31600</v>
       </c>
       <c r="F57" s="3">
-        <v>23500</v>
+        <v>29400</v>
       </c>
       <c r="G57" s="3">
+        <v>23300</v>
+      </c>
+      <c r="H57" s="3">
+        <v>26100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>20400</v>
+      </c>
+      <c r="J57" s="3">
         <v>26300</v>
       </c>
-      <c r="H57" s="3">
-        <v>20500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>26500</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>27600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>26100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>27700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>26100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2404,19 +2538,19 @@
         <v>4300</v>
       </c>
       <c r="E58" s="3">
-        <v>8700</v>
+        <v>4300</v>
       </c>
       <c r="F58" s="3">
-        <v>6100</v>
+        <v>8600</v>
       </c>
       <c r="G58" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H58" s="3">
         <v>7500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1200</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>10</v>
@@ -2427,166 +2561,181 @@
       <c r="L58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18600</v>
+        <v>17900</v>
       </c>
       <c r="E59" s="3">
-        <v>10000</v>
+        <v>18400</v>
       </c>
       <c r="F59" s="3">
-        <v>15100</v>
+        <v>9900</v>
       </c>
       <c r="G59" s="3">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="H59" s="3">
-        <v>16500</v>
+        <v>13800</v>
       </c>
       <c r="I59" s="3">
-        <v>14300</v>
+        <v>16400</v>
       </c>
       <c r="J59" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K59" s="3">
         <v>19200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>18400</v>
       </c>
       <c r="L59" s="3">
         <v>18400</v>
       </c>
       <c r="M59" s="3">
+        <v>18400</v>
+      </c>
+      <c r="N59" s="3">
         <v>18000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>54800</v>
+        <v>53800</v>
       </c>
       <c r="E60" s="3">
-        <v>48400</v>
+        <v>54300</v>
       </c>
       <c r="F60" s="3">
-        <v>44600</v>
+        <v>47900</v>
       </c>
       <c r="G60" s="3">
-        <v>47800</v>
+        <v>44200</v>
       </c>
       <c r="H60" s="3">
-        <v>38300</v>
+        <v>47400</v>
       </c>
       <c r="I60" s="3">
-        <v>40900</v>
+        <v>37900</v>
       </c>
       <c r="J60" s="3">
+        <v>40500</v>
+      </c>
+      <c r="K60" s="3">
         <v>46800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>44500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>46100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>44200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>50400</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>88300</v>
+        <v>85200</v>
       </c>
       <c r="E61" s="3">
-        <v>87800</v>
+        <v>87500</v>
       </c>
       <c r="F61" s="3">
-        <v>53000</v>
+        <v>87000</v>
       </c>
       <c r="G61" s="3">
-        <v>54400</v>
+        <v>52500</v>
       </c>
       <c r="H61" s="3">
-        <v>45400</v>
+        <v>53900</v>
       </c>
       <c r="I61" s="3">
+        <v>45000</v>
+      </c>
+      <c r="J61" s="3">
         <v>6600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2900</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>37200</v>
+        <v>35700</v>
       </c>
       <c r="E62" s="3">
-        <v>35600</v>
+        <v>36800</v>
       </c>
       <c r="F62" s="3">
-        <v>37800</v>
+        <v>35200</v>
       </c>
       <c r="G62" s="3">
-        <v>36600</v>
+        <v>37400</v>
       </c>
       <c r="H62" s="3">
-        <v>37900</v>
+        <v>36200</v>
       </c>
       <c r="I62" s="3">
-        <v>39400</v>
+        <v>37600</v>
       </c>
       <c r="J62" s="3">
+        <v>39000</v>
+      </c>
+      <c r="K62" s="3">
         <v>32900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>20700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>180200</v>
+        <v>174800</v>
       </c>
       <c r="E66" s="3">
-        <v>171800</v>
+        <v>178600</v>
       </c>
       <c r="F66" s="3">
-        <v>135400</v>
+        <v>170200</v>
       </c>
       <c r="G66" s="3">
-        <v>138800</v>
+        <v>134200</v>
       </c>
       <c r="H66" s="3">
-        <v>121600</v>
+        <v>137500</v>
       </c>
       <c r="I66" s="3">
-        <v>86900</v>
+        <v>120500</v>
       </c>
       <c r="J66" s="3">
+        <v>86100</v>
+      </c>
+      <c r="K66" s="3">
         <v>86600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>64800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>64600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>64900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-175200</v>
+        <v>-198600</v>
       </c>
       <c r="E72" s="3">
-        <v>-145200</v>
+        <v>-173600</v>
       </c>
       <c r="F72" s="3">
-        <v>-124300</v>
+        <v>-143800</v>
       </c>
       <c r="G72" s="3">
-        <v>-104100</v>
+        <v>-123200</v>
       </c>
       <c r="H72" s="3">
-        <v>-91000</v>
+        <v>-103200</v>
       </c>
       <c r="I72" s="3">
-        <v>-74700</v>
+        <v>-90200</v>
       </c>
       <c r="J72" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-69200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-65000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-65300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-59000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-49300</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>60400</v>
+        <v>35100</v>
       </c>
       <c r="E76" s="3">
-        <v>88400</v>
+        <v>59800</v>
       </c>
       <c r="F76" s="3">
-        <v>106900</v>
+        <v>87600</v>
       </c>
       <c r="G76" s="3">
-        <v>126700</v>
+        <v>105900</v>
       </c>
       <c r="H76" s="3">
-        <v>137500</v>
+        <v>125500</v>
       </c>
       <c r="I76" s="3">
-        <v>152000</v>
+        <v>136300</v>
       </c>
       <c r="J76" s="3">
+        <v>150600</v>
+      </c>
+      <c r="K76" s="3">
         <v>152700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>149100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>144600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>160300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-30100</v>
+        <v>-24900</v>
       </c>
       <c r="E81" s="3">
-        <v>-20900</v>
+        <v>-29800</v>
       </c>
       <c r="F81" s="3">
-        <v>-20100</v>
+        <v>-20700</v>
       </c>
       <c r="G81" s="3">
-        <v>-12700</v>
+        <v>-19900</v>
       </c>
       <c r="H81" s="3">
-        <v>-16300</v>
+        <v>-12600</v>
       </c>
       <c r="I81" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-5400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,46 +3428,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E83" s="3">
         <v>6000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>5100</v>
       </c>
       <c r="F83" s="3">
         <v>5000</v>
       </c>
       <c r="G83" s="3">
-        <v>4500</v>
+        <v>4900</v>
       </c>
       <c r="H83" s="3">
         <v>4400</v>
       </c>
       <c r="I83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K83" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M83" s="3">
         <v>4000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>3600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>3500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>4000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>3800</v>
       </c>
       <c r="N83" s="3">
         <v>3800</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-24800</v>
+        <v>-23000</v>
       </c>
       <c r="E89" s="3">
-        <v>-9100</v>
+        <v>-24600</v>
       </c>
       <c r="F89" s="3">
-        <v>-16000</v>
+        <v>-9000</v>
       </c>
       <c r="G89" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
-        <v>-15800</v>
-      </c>
       <c r="I89" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="J89" s="3">
         <v>6600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3732,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>13000</v>
-      </c>
       <c r="F91" s="3">
+        <v>12900</v>
+      </c>
+      <c r="G91" s="3">
         <v>-2300</v>
       </c>
-      <c r="G91" s="3">
-        <v>-7600</v>
-      </c>
       <c r="H91" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="I91" s="3">
         <v>-3800</v>
       </c>
-      <c r="I91" s="3">
-        <v>-12000</v>
-      </c>
       <c r="J91" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2100</v>
       </c>
-      <c r="E94" s="3">
-        <v>-2600</v>
-      </c>
       <c r="F94" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G94" s="3">
         <v>-2800</v>
       </c>
-      <c r="G94" s="3">
-        <v>-8400</v>
-      </c>
       <c r="H94" s="3">
-        <v>-4700</v>
+        <v>-8300</v>
       </c>
       <c r="I94" s="3">
-        <v>-12700</v>
+        <v>-4600</v>
       </c>
       <c r="J94" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3100</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-6500</v>
       </c>
       <c r="N94" s="3">
         <v>-6500</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>-6500</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,118 +4075,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1100</v>
       </c>
-      <c r="E100" s="3">
-        <v>34400</v>
-      </c>
       <c r="F100" s="3">
+        <v>34100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-700</v>
       </c>
-      <c r="G100" s="3">
-        <v>9500</v>
-      </c>
       <c r="H100" s="3">
-        <v>38300</v>
+        <v>9400</v>
       </c>
       <c r="I100" s="3">
+        <v>37900</v>
+      </c>
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-200</v>
       </c>
       <c r="F101" s="3">
         <v>-200</v>
       </c>
       <c r="G101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-27800</v>
+        <v>-24700</v>
       </c>
       <c r="E102" s="3">
-        <v>22600</v>
+        <v>-27600</v>
       </c>
       <c r="F102" s="3">
-        <v>-19600</v>
+        <v>22400</v>
       </c>
       <c r="G102" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="H102" s="3">
         <v>1700</v>
       </c>
-      <c r="H102" s="3">
-        <v>18200</v>
-      </c>
       <c r="I102" s="3">
+        <v>18000</v>
+      </c>
+      <c r="J102" s="3">
         <v>-6300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-12100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRT_QTR_FIN.xlsx
@@ -733,25 +733,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>57800</v>
+        <v>59500</v>
       </c>
       <c r="E8" s="3">
-        <v>49500</v>
+        <v>51000</v>
       </c>
       <c r="F8" s="3">
-        <v>55400</v>
+        <v>57100</v>
       </c>
       <c r="G8" s="3">
-        <v>44100</v>
+        <v>45400</v>
       </c>
       <c r="H8" s="3">
-        <v>53100</v>
+        <v>54700</v>
       </c>
       <c r="I8" s="3">
-        <v>38100</v>
+        <v>39300</v>
       </c>
       <c r="J8" s="3">
-        <v>54500</v>
+        <v>56200</v>
       </c>
       <c r="K8" s="3">
         <v>60300</v>
@@ -774,25 +774,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>49700</v>
+        <v>51200</v>
       </c>
       <c r="E9" s="3">
-        <v>45200</v>
+        <v>46600</v>
       </c>
       <c r="F9" s="3">
-        <v>44600</v>
+        <v>46000</v>
       </c>
       <c r="G9" s="3">
-        <v>40900</v>
+        <v>42100</v>
       </c>
       <c r="H9" s="3">
-        <v>41200</v>
+        <v>42500</v>
       </c>
       <c r="I9" s="3">
-        <v>33700</v>
+        <v>34800</v>
       </c>
       <c r="J9" s="3">
-        <v>39600</v>
+        <v>40800</v>
       </c>
       <c r="K9" s="3">
         <v>39100</v>
@@ -815,25 +815,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8100</v>
+        <v>8400</v>
       </c>
       <c r="E10" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="F10" s="3">
-        <v>10800</v>
+        <v>11200</v>
       </c>
       <c r="G10" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H10" s="3">
-        <v>11900</v>
+        <v>12300</v>
       </c>
       <c r="I10" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="J10" s="3">
-        <v>14900</v>
+        <v>15400</v>
       </c>
       <c r="K10" s="3">
         <v>21200</v>
@@ -873,22 +873,22 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E12" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="F12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G12" s="3">
         <v>2900</v>
       </c>
-      <c r="G12" s="3">
-        <v>2800</v>
-      </c>
       <c r="H12" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I12" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="J12" s="3">
         <v>2500</v>
@@ -955,25 +955,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="E14" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="F14" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G14" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="H14" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="I14" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="J14" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="K14" s="3">
         <v>-5900</v>
@@ -1051,25 +1051,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>82600</v>
+        <v>85100</v>
       </c>
       <c r="E17" s="3">
-        <v>76600</v>
+        <v>78900</v>
       </c>
       <c r="F17" s="3">
-        <v>74800</v>
+        <v>77100</v>
       </c>
       <c r="G17" s="3">
-        <v>63500</v>
+        <v>65500</v>
       </c>
       <c r="H17" s="3">
-        <v>64300</v>
+        <v>66300</v>
       </c>
       <c r="I17" s="3">
-        <v>53300</v>
+        <v>55000</v>
       </c>
       <c r="J17" s="3">
-        <v>58000</v>
+        <v>59800</v>
       </c>
       <c r="K17" s="3">
         <v>57800</v>
@@ -1092,25 +1092,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-24800</v>
+        <v>-25600</v>
       </c>
       <c r="E18" s="3">
-        <v>-27100</v>
+        <v>-27900</v>
       </c>
       <c r="F18" s="3">
-        <v>-19300</v>
+        <v>-19900</v>
       </c>
       <c r="G18" s="3">
-        <v>-19500</v>
+        <v>-20000</v>
       </c>
       <c r="H18" s="3">
-        <v>-11200</v>
+        <v>-11600</v>
       </c>
       <c r="I18" s="3">
-        <v>-15200</v>
+        <v>-15700</v>
       </c>
       <c r="J18" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="K18" s="3">
         <v>2500</v>
@@ -1150,13 +1150,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E20" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="F20" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="G20" s="3">
         <v>700</v>
@@ -1191,22 +1191,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-18900</v>
+        <v>-19500</v>
       </c>
       <c r="E21" s="3">
-        <v>-22100</v>
+        <v>-22800</v>
       </c>
       <c r="F21" s="3">
-        <v>-15100</v>
+        <v>-15500</v>
       </c>
       <c r="G21" s="3">
-        <v>-13800</v>
+        <v>-14200</v>
       </c>
       <c r="H21" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="I21" s="3">
-        <v>-11100</v>
+        <v>-11400</v>
       </c>
       <c r="J21" s="3">
         <v>-1500</v>
@@ -1232,22 +1232,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E22" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F22" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G22" s="3">
         <v>1100</v>
       </c>
       <c r="H22" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I22" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1273,25 +1273,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-24900</v>
+        <v>-25700</v>
       </c>
       <c r="E23" s="3">
-        <v>-29800</v>
+        <v>-30700</v>
       </c>
       <c r="F23" s="3">
-        <v>-21400</v>
+        <v>-22100</v>
       </c>
       <c r="G23" s="3">
-        <v>-19800</v>
+        <v>-20400</v>
       </c>
       <c r="H23" s="3">
-        <v>-12300</v>
+        <v>-12700</v>
       </c>
       <c r="I23" s="3">
-        <v>-16100</v>
+        <v>-16600</v>
       </c>
       <c r="J23" s="3">
-        <v>-5500</v>
+        <v>-5700</v>
       </c>
       <c r="K23" s="3">
         <v>1700</v>
@@ -1396,25 +1396,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-24900</v>
+        <v>-25700</v>
       </c>
       <c r="E26" s="3">
-        <v>-29800</v>
+        <v>-30700</v>
       </c>
       <c r="F26" s="3">
-        <v>-20700</v>
+        <v>-21300</v>
       </c>
       <c r="G26" s="3">
-        <v>-19900</v>
+        <v>-20500</v>
       </c>
       <c r="H26" s="3">
-        <v>-12600</v>
+        <v>-13000</v>
       </c>
       <c r="I26" s="3">
-        <v>-16200</v>
+        <v>-16600</v>
       </c>
       <c r="J26" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="K26" s="3">
         <v>-2700</v>
@@ -1437,25 +1437,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-24900</v>
+        <v>-25700</v>
       </c>
       <c r="E27" s="3">
-        <v>-29800</v>
+        <v>-30700</v>
       </c>
       <c r="F27" s="3">
-        <v>-20700</v>
+        <v>-21300</v>
       </c>
       <c r="G27" s="3">
-        <v>-19900</v>
+        <v>-20500</v>
       </c>
       <c r="H27" s="3">
-        <v>-12600</v>
+        <v>-13000</v>
       </c>
       <c r="I27" s="3">
-        <v>-16200</v>
+        <v>-16600</v>
       </c>
       <c r="J27" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="K27" s="3">
         <v>-2700</v>
@@ -1642,13 +1642,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="E32" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F32" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G32" s="3">
         <v>-700</v>
@@ -1683,25 +1683,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-24900</v>
+        <v>-25700</v>
       </c>
       <c r="E33" s="3">
-        <v>-29800</v>
+        <v>-30700</v>
       </c>
       <c r="F33" s="3">
-        <v>-20700</v>
+        <v>-21300</v>
       </c>
       <c r="G33" s="3">
-        <v>-19900</v>
+        <v>-20500</v>
       </c>
       <c r="H33" s="3">
-        <v>-12600</v>
+        <v>-13000</v>
       </c>
       <c r="I33" s="3">
-        <v>-16200</v>
+        <v>-16600</v>
       </c>
       <c r="J33" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="K33" s="3">
         <v>-2700</v>
@@ -1765,25 +1765,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-24900</v>
+        <v>-25700</v>
       </c>
       <c r="E35" s="3">
-        <v>-29800</v>
+        <v>-30700</v>
       </c>
       <c r="F35" s="3">
-        <v>-20700</v>
+        <v>-21300</v>
       </c>
       <c r="G35" s="3">
-        <v>-19900</v>
+        <v>-20500</v>
       </c>
       <c r="H35" s="3">
-        <v>-12600</v>
+        <v>-13000</v>
       </c>
       <c r="I35" s="3">
-        <v>-16200</v>
+        <v>-16600</v>
       </c>
       <c r="J35" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="K35" s="3">
         <v>-2700</v>
@@ -1886,25 +1886,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>25500</v>
+        <v>26300</v>
       </c>
       <c r="E41" s="3">
-        <v>50200</v>
+        <v>51800</v>
       </c>
       <c r="F41" s="3">
-        <v>77900</v>
+        <v>80300</v>
       </c>
       <c r="G41" s="3">
-        <v>55900</v>
+        <v>57700</v>
       </c>
       <c r="H41" s="3">
-        <v>75400</v>
+        <v>77700</v>
       </c>
       <c r="I41" s="3">
-        <v>75800</v>
+        <v>78100</v>
       </c>
       <c r="J41" s="3">
-        <v>59300</v>
+        <v>61100</v>
       </c>
       <c r="K41" s="3">
         <v>66100</v>
@@ -1968,25 +1968,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>25400</v>
+        <v>26200</v>
       </c>
       <c r="E43" s="3">
+        <v>30100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>23400</v>
+      </c>
+      <c r="G43" s="3">
+        <v>23600</v>
+      </c>
+      <c r="H43" s="3">
         <v>29200</v>
       </c>
-      <c r="F43" s="3">
-        <v>22700</v>
-      </c>
-      <c r="G43" s="3">
-        <v>22900</v>
-      </c>
-      <c r="H43" s="3">
-        <v>28300</v>
-      </c>
       <c r="I43" s="3">
-        <v>24900</v>
+        <v>25600</v>
       </c>
       <c r="J43" s="3">
-        <v>24500</v>
+        <v>25200</v>
       </c>
       <c r="K43" s="3">
         <v>27100</v>
@@ -2009,25 +2009,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>32700</v>
+        <v>33700</v>
       </c>
       <c r="E44" s="3">
-        <v>28600</v>
+        <v>29500</v>
       </c>
       <c r="F44" s="3">
-        <v>23900</v>
+        <v>24600</v>
       </c>
       <c r="G44" s="3">
-        <v>22500</v>
+        <v>23100</v>
       </c>
       <c r="H44" s="3">
-        <v>21700</v>
+        <v>22300</v>
       </c>
       <c r="I44" s="3">
-        <v>20600</v>
+        <v>21200</v>
       </c>
       <c r="J44" s="3">
-        <v>20600</v>
+        <v>21300</v>
       </c>
       <c r="K44" s="3">
         <v>22000</v>
@@ -2050,25 +2050,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="E45" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F45" s="3">
         <v>10000</v>
       </c>
-      <c r="F45" s="3">
-        <v>9700</v>
-      </c>
       <c r="G45" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="H45" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="I45" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="J45" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="K45" s="3">
         <v>5500</v>
@@ -2091,25 +2091,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>94700</v>
+        <v>97600</v>
       </c>
       <c r="E46" s="3">
-        <v>118000</v>
+        <v>121600</v>
       </c>
       <c r="F46" s="3">
-        <v>134200</v>
+        <v>138200</v>
       </c>
       <c r="G46" s="3">
-        <v>112500</v>
+        <v>115900</v>
       </c>
       <c r="H46" s="3">
-        <v>134300</v>
+        <v>138300</v>
       </c>
       <c r="I46" s="3">
-        <v>129000</v>
+        <v>133000</v>
       </c>
       <c r="J46" s="3">
-        <v>109700</v>
+        <v>113000</v>
       </c>
       <c r="K46" s="3">
         <v>120700</v>
@@ -2173,25 +2173,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>99800</v>
+        <v>102900</v>
       </c>
       <c r="E48" s="3">
-        <v>104300</v>
+        <v>107400</v>
       </c>
       <c r="F48" s="3">
-        <v>106700</v>
+        <v>110000</v>
       </c>
       <c r="G48" s="3">
-        <v>109200</v>
+        <v>112500</v>
       </c>
       <c r="H48" s="3">
-        <v>109300</v>
+        <v>112600</v>
       </c>
       <c r="I48" s="3">
-        <v>108300</v>
+        <v>111700</v>
       </c>
       <c r="J48" s="3">
-        <v>107900</v>
+        <v>111200</v>
       </c>
       <c r="K48" s="3">
         <v>97400</v>
@@ -2214,25 +2214,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="E49" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="F49" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="G49" s="3">
-        <v>12100</v>
+        <v>12400</v>
       </c>
       <c r="H49" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="I49" s="3">
-        <v>12700</v>
+        <v>13100</v>
       </c>
       <c r="J49" s="3">
-        <v>12700</v>
+        <v>13000</v>
       </c>
       <c r="K49" s="3">
         <v>12400</v>
@@ -2337,25 +2337,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="E52" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F52" s="3">
         <v>7500</v>
       </c>
-      <c r="F52" s="3">
-        <v>7300</v>
-      </c>
       <c r="G52" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="H52" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I52" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J52" s="3">
         <v>6700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>6700</v>
-      </c>
-      <c r="J52" s="3">
-        <v>6500</v>
       </c>
       <c r="K52" s="3">
         <v>8800</v>
@@ -2419,25 +2419,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>209900</v>
+        <v>216300</v>
       </c>
       <c r="E54" s="3">
-        <v>238400</v>
+        <v>245700</v>
       </c>
       <c r="F54" s="3">
-        <v>257800</v>
+        <v>265600</v>
       </c>
       <c r="G54" s="3">
-        <v>240100</v>
+        <v>247400</v>
       </c>
       <c r="H54" s="3">
-        <v>263000</v>
+        <v>271100</v>
       </c>
       <c r="I54" s="3">
-        <v>256800</v>
+        <v>264600</v>
       </c>
       <c r="J54" s="3">
-        <v>236700</v>
+        <v>243900</v>
       </c>
       <c r="K54" s="3">
         <v>239300</v>
@@ -2494,25 +2494,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>31700</v>
+        <v>32700</v>
       </c>
       <c r="E57" s="3">
-        <v>31600</v>
+        <v>32500</v>
       </c>
       <c r="F57" s="3">
-        <v>29400</v>
+        <v>30300</v>
       </c>
       <c r="G57" s="3">
-        <v>23300</v>
+        <v>24000</v>
       </c>
       <c r="H57" s="3">
-        <v>26100</v>
+        <v>26900</v>
       </c>
       <c r="I57" s="3">
-        <v>20400</v>
+        <v>21000</v>
       </c>
       <c r="J57" s="3">
-        <v>26300</v>
+        <v>27100</v>
       </c>
       <c r="K57" s="3">
         <v>27600</v>
@@ -2535,19 +2535,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="E58" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="F58" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="G58" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="H58" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="I58" s="3">
         <v>1200</v>
@@ -2576,25 +2576,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17900</v>
+        <v>18400</v>
       </c>
       <c r="E59" s="3">
-        <v>18400</v>
+        <v>19000</v>
       </c>
       <c r="F59" s="3">
-        <v>9900</v>
+        <v>10200</v>
       </c>
       <c r="G59" s="3">
-        <v>15000</v>
+        <v>15400</v>
       </c>
       <c r="H59" s="3">
-        <v>13800</v>
+        <v>14300</v>
       </c>
       <c r="I59" s="3">
-        <v>16400</v>
+        <v>16900</v>
       </c>
       <c r="J59" s="3">
-        <v>14200</v>
+        <v>14600</v>
       </c>
       <c r="K59" s="3">
         <v>19200</v>
@@ -2617,25 +2617,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>53800</v>
+        <v>55500</v>
       </c>
       <c r="E60" s="3">
-        <v>54300</v>
+        <v>55900</v>
       </c>
       <c r="F60" s="3">
-        <v>47900</v>
+        <v>49400</v>
       </c>
       <c r="G60" s="3">
-        <v>44200</v>
+        <v>45600</v>
       </c>
       <c r="H60" s="3">
-        <v>47400</v>
+        <v>48800</v>
       </c>
       <c r="I60" s="3">
-        <v>37900</v>
+        <v>39100</v>
       </c>
       <c r="J60" s="3">
-        <v>40500</v>
+        <v>41800</v>
       </c>
       <c r="K60" s="3">
         <v>46800</v>
@@ -2658,25 +2658,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>85200</v>
+        <v>87800</v>
       </c>
       <c r="E61" s="3">
-        <v>87500</v>
+        <v>90100</v>
       </c>
       <c r="F61" s="3">
-        <v>87000</v>
+        <v>89700</v>
       </c>
       <c r="G61" s="3">
-        <v>52500</v>
+        <v>54100</v>
       </c>
       <c r="H61" s="3">
-        <v>53900</v>
+        <v>55500</v>
       </c>
       <c r="I61" s="3">
-        <v>45000</v>
+        <v>46400</v>
       </c>
       <c r="J61" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="K61" s="3">
         <v>6900</v>
@@ -2699,25 +2699,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>35700</v>
+        <v>36800</v>
       </c>
       <c r="E62" s="3">
-        <v>36800</v>
+        <v>37900</v>
       </c>
       <c r="F62" s="3">
-        <v>35200</v>
+        <v>36300</v>
       </c>
       <c r="G62" s="3">
-        <v>37400</v>
+        <v>38500</v>
       </c>
       <c r="H62" s="3">
-        <v>36200</v>
+        <v>37300</v>
       </c>
       <c r="I62" s="3">
-        <v>37600</v>
+        <v>38700</v>
       </c>
       <c r="J62" s="3">
-        <v>39000</v>
+        <v>40200</v>
       </c>
       <c r="K62" s="3">
         <v>32900</v>
@@ -2863,25 +2863,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>174800</v>
+        <v>180100</v>
       </c>
       <c r="E66" s="3">
-        <v>178600</v>
+        <v>184000</v>
       </c>
       <c r="F66" s="3">
-        <v>170200</v>
+        <v>175400</v>
       </c>
       <c r="G66" s="3">
-        <v>134200</v>
+        <v>138300</v>
       </c>
       <c r="H66" s="3">
-        <v>137500</v>
+        <v>141700</v>
       </c>
       <c r="I66" s="3">
-        <v>120500</v>
+        <v>124200</v>
       </c>
       <c r="J66" s="3">
-        <v>86100</v>
+        <v>88700</v>
       </c>
       <c r="K66" s="3">
         <v>86600</v>
@@ -3085,25 +3085,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-198600</v>
+        <v>-204600</v>
       </c>
       <c r="E72" s="3">
-        <v>-173600</v>
+        <v>-178900</v>
       </c>
       <c r="F72" s="3">
-        <v>-143800</v>
+        <v>-148200</v>
       </c>
       <c r="G72" s="3">
-        <v>-123200</v>
+        <v>-126900</v>
       </c>
       <c r="H72" s="3">
-        <v>-103200</v>
+        <v>-106300</v>
       </c>
       <c r="I72" s="3">
-        <v>-90200</v>
+        <v>-92900</v>
       </c>
       <c r="J72" s="3">
-        <v>-74000</v>
+        <v>-76300</v>
       </c>
       <c r="K72" s="3">
         <v>-69200</v>
@@ -3249,25 +3249,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>35100</v>
+        <v>36200</v>
       </c>
       <c r="E76" s="3">
-        <v>59800</v>
+        <v>61700</v>
       </c>
       <c r="F76" s="3">
-        <v>87600</v>
+        <v>90300</v>
       </c>
       <c r="G76" s="3">
-        <v>105900</v>
+        <v>109100</v>
       </c>
       <c r="H76" s="3">
-        <v>125500</v>
+        <v>129300</v>
       </c>
       <c r="I76" s="3">
-        <v>136300</v>
+        <v>140400</v>
       </c>
       <c r="J76" s="3">
-        <v>150600</v>
+        <v>155200</v>
       </c>
       <c r="K76" s="3">
         <v>152700</v>
@@ -3377,25 +3377,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-24900</v>
+        <v>-25700</v>
       </c>
       <c r="E81" s="3">
-        <v>-29800</v>
+        <v>-30700</v>
       </c>
       <c r="F81" s="3">
-        <v>-20700</v>
+        <v>-21300</v>
       </c>
       <c r="G81" s="3">
-        <v>-19900</v>
+        <v>-20500</v>
       </c>
       <c r="H81" s="3">
-        <v>-12600</v>
+        <v>-13000</v>
       </c>
       <c r="I81" s="3">
-        <v>-16200</v>
+        <v>-16600</v>
       </c>
       <c r="J81" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="K81" s="3">
         <v>-2700</v>
@@ -3435,25 +3435,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="E83" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="F83" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="G83" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="H83" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="I83" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="J83" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="K83" s="3">
         <v>3600</v>
@@ -3681,25 +3681,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-23000</v>
+        <v>-23700</v>
       </c>
       <c r="E89" s="3">
-        <v>-24600</v>
+        <v>-25400</v>
       </c>
       <c r="F89" s="3">
-        <v>-9000</v>
+        <v>-9300</v>
       </c>
       <c r="G89" s="3">
-        <v>-15800</v>
+        <v>-16300</v>
       </c>
       <c r="H89" s="3">
         <v>100</v>
       </c>
       <c r="I89" s="3">
-        <v>-15600</v>
+        <v>-16100</v>
       </c>
       <c r="J89" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="K89" s="3">
         <v>7500</v>
@@ -3745,19 +3745,19 @@
         <v>-200</v>
       </c>
       <c r="F91" s="3">
-        <v>12900</v>
+        <v>13300</v>
       </c>
       <c r="G91" s="3">
         <v>-2300</v>
       </c>
       <c r="H91" s="3">
-        <v>-7500</v>
+        <v>-7700</v>
       </c>
       <c r="I91" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="J91" s="3">
-        <v>-11900</v>
+        <v>-12300</v>
       </c>
       <c r="K91" s="3">
         <v>-1600</v>
@@ -3862,25 +3862,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="E94" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="F94" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="G94" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="H94" s="3">
-        <v>-8300</v>
+        <v>-8600</v>
       </c>
       <c r="I94" s="3">
-        <v>-4600</v>
+        <v>-4800</v>
       </c>
       <c r="J94" s="3">
-        <v>-12600</v>
+        <v>-12900</v>
       </c>
       <c r="K94" s="3">
         <v>-4300</v>
@@ -4090,16 +4090,16 @@
         <v>-1100</v>
       </c>
       <c r="F100" s="3">
-        <v>34100</v>
+        <v>35100</v>
       </c>
       <c r="G100" s="3">
         <v>-700</v>
       </c>
       <c r="H100" s="3">
-        <v>9400</v>
+        <v>9700</v>
       </c>
       <c r="I100" s="3">
-        <v>37900</v>
+        <v>39100</v>
       </c>
       <c r="J100" s="3">
         <v>-300</v>
@@ -4166,25 +4166,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-24700</v>
+        <v>-25500</v>
       </c>
       <c r="E102" s="3">
-        <v>-27600</v>
+        <v>-28400</v>
       </c>
       <c r="F102" s="3">
-        <v>22400</v>
+        <v>23100</v>
       </c>
       <c r="G102" s="3">
-        <v>-19500</v>
+        <v>-20000</v>
       </c>
       <c r="H102" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I102" s="3">
-        <v>18000</v>
+        <v>18600</v>
       </c>
       <c r="J102" s="3">
-        <v>-6300</v>
+        <v>-6500</v>
       </c>
       <c r="K102" s="3">
         <v>7900</v>

--- a/AAII_Financials/Quarterly/DRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,218 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>59500</v>
+        <v>58600</v>
       </c>
       <c r="E8" s="3">
-        <v>51000</v>
+        <v>64600</v>
       </c>
       <c r="F8" s="3">
-        <v>57100</v>
+        <v>61800</v>
       </c>
       <c r="G8" s="3">
-        <v>45400</v>
+        <v>53000</v>
       </c>
       <c r="H8" s="3">
-        <v>54700</v>
+        <v>59300</v>
       </c>
       <c r="I8" s="3">
+        <v>47200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>56800</v>
+      </c>
+      <c r="K8" s="3">
         <v>39300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>56200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>60300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>53800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>52200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>68200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>51200</v>
+        <v>42600</v>
       </c>
       <c r="E9" s="3">
-        <v>46600</v>
+        <v>54900</v>
       </c>
       <c r="F9" s="3">
-        <v>46000</v>
+        <v>53100</v>
       </c>
       <c r="G9" s="3">
-        <v>42100</v>
+        <v>48400</v>
       </c>
       <c r="H9" s="3">
-        <v>42500</v>
+        <v>47700</v>
       </c>
       <c r="I9" s="3">
+        <v>43800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>44100</v>
+      </c>
+      <c r="K9" s="3">
         <v>34800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>40800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>39100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>35600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>37800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>51000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8400</v>
+        <v>16000</v>
       </c>
       <c r="E10" s="3">
-        <v>4400</v>
+        <v>9600</v>
       </c>
       <c r="F10" s="3">
-        <v>11200</v>
+        <v>8700</v>
       </c>
       <c r="G10" s="3">
-        <v>3300</v>
+        <v>4600</v>
       </c>
       <c r="H10" s="3">
-        <v>12300</v>
+        <v>11600</v>
       </c>
       <c r="I10" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K10" s="3">
         <v>4500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>15400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>21200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>18200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>14400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>17300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,8 +892,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -876,40 +903,46 @@
         <v>2500</v>
       </c>
       <c r="E12" s="3">
-        <v>2900</v>
+        <v>2300</v>
       </c>
       <c r="F12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G12" s="3">
         <v>3000</v>
       </c>
-      <c r="G12" s="3">
-        <v>2900</v>
-      </c>
       <c r="H12" s="3">
-        <v>2600</v>
+        <v>3100</v>
       </c>
       <c r="I12" s="3">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="J12" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="K12" s="3">
         <v>2600</v>
       </c>
       <c r="L12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N12" s="3">
         <v>2700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>2800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>2500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,49 +982,61 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>6800</v>
+        <v>1600</v>
       </c>
       <c r="E14" s="3">
-        <v>4200</v>
+        <v>-5100</v>
       </c>
       <c r="F14" s="3">
+        <v>7100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-4600</v>
-      </c>
       <c r="I14" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K14" s="3">
         <v>-5400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-5200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-5900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-5500</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>2500</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1076,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1096,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>85100</v>
+        <v>64500</v>
       </c>
       <c r="E17" s="3">
-        <v>78900</v>
+        <v>74100</v>
       </c>
       <c r="F17" s="3">
-        <v>77100</v>
+        <v>88400</v>
       </c>
       <c r="G17" s="3">
-        <v>65500</v>
+        <v>82000</v>
       </c>
       <c r="H17" s="3">
-        <v>66300</v>
+        <v>80000</v>
       </c>
       <c r="I17" s="3">
+        <v>68000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>68800</v>
+      </c>
+      <c r="K17" s="3">
         <v>55000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>59800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>57800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>52000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>63800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>80800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>74500</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-25600</v>
+        <v>-5900</v>
       </c>
       <c r="E18" s="3">
-        <v>-27900</v>
+        <v>-9500</v>
       </c>
       <c r="F18" s="3">
-        <v>-19900</v>
+        <v>-26600</v>
       </c>
       <c r="G18" s="3">
-        <v>-20000</v>
+        <v>-29000</v>
       </c>
       <c r="H18" s="3">
-        <v>-11600</v>
+        <v>-20700</v>
       </c>
       <c r="I18" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-15700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-11500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-12500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,122 +1209,136 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1700</v>
+        <v>-500</v>
       </c>
       <c r="E20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
-        <v>700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>3100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-19500</v>
+        <v>-2400</v>
       </c>
       <c r="E21" s="3">
-        <v>-22800</v>
+        <v>-1700</v>
       </c>
       <c r="F21" s="3">
-        <v>-15500</v>
+        <v>-20200</v>
       </c>
       <c r="G21" s="3">
-        <v>-14200</v>
+        <v>-23600</v>
       </c>
       <c r="H21" s="3">
-        <v>-7100</v>
+        <v>-16100</v>
       </c>
       <c r="I21" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-11400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>5500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>4100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-4400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-9200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E22" s="3">
         <v>1800</v>
       </c>
       <c r="F22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H22" s="3">
         <v>1400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1267,90 +1346,108 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-25700</v>
+        <v>-8100</v>
       </c>
       <c r="E23" s="3">
-        <v>-30700</v>
+        <v>-9300</v>
       </c>
       <c r="F23" s="3">
-        <v>-22100</v>
+        <v>-26700</v>
       </c>
       <c r="G23" s="3">
-        <v>-20400</v>
+        <v>-31900</v>
       </c>
       <c r="H23" s="3">
-        <v>-12700</v>
+        <v>-22900</v>
       </c>
       <c r="I23" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-16600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-5700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-8500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-13100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>300</v>
+        <v>-800</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
+        <v>300</v>
+      </c>
+      <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>4400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-3400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1487,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-25700</v>
+        <v>-8200</v>
       </c>
       <c r="E26" s="3">
-        <v>-30700</v>
+        <v>-9300</v>
       </c>
       <c r="F26" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-21300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-20500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-16600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-5600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-6800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-9700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-25700</v>
+        <v>-8200</v>
       </c>
       <c r="E27" s="3">
-        <v>-30700</v>
+        <v>-9300</v>
       </c>
       <c r="F27" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-21300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-20500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-16600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-5600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-6800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-9700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1628,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1675,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1722,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1769,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1700</v>
+        <v>500</v>
       </c>
       <c r="E32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-3100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-25700</v>
+        <v>-8200</v>
       </c>
       <c r="E33" s="3">
-        <v>-30700</v>
+        <v>-9300</v>
       </c>
       <c r="F33" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-21300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-20500</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-16600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-5600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-6800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-9700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1910,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-25700</v>
+        <v>-8200</v>
       </c>
       <c r="E35" s="3">
-        <v>-30700</v>
+        <v>-9300</v>
       </c>
       <c r="F35" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-21300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-20500</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-16600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-5600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-6800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-9700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2032,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +2051,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>26300</v>
+        <v>15000</v>
       </c>
       <c r="E41" s="3">
-        <v>51800</v>
+        <v>9400</v>
       </c>
       <c r="F41" s="3">
-        <v>80300</v>
+        <v>27300</v>
       </c>
       <c r="G41" s="3">
-        <v>57700</v>
+        <v>53700</v>
       </c>
       <c r="H41" s="3">
-        <v>77700</v>
+        <v>83400</v>
       </c>
       <c r="I41" s="3">
+        <v>59900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>80600</v>
+      </c>
+      <c r="K41" s="3">
         <v>78100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>61100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>66100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>56900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>55400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>60500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>72600</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,172 +2141,202 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>26200</v>
+        <v>30200</v>
       </c>
       <c r="E43" s="3">
-        <v>30100</v>
+        <v>38100</v>
       </c>
       <c r="F43" s="3">
-        <v>23400</v>
+        <v>27200</v>
       </c>
       <c r="G43" s="3">
-        <v>23600</v>
+        <v>31200</v>
       </c>
       <c r="H43" s="3">
-        <v>29200</v>
+        <v>24300</v>
       </c>
       <c r="I43" s="3">
+        <v>24500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>30300</v>
+      </c>
+      <c r="K43" s="3">
         <v>25600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>25200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>27100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>27100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>29500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>32000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>33700</v>
+        <v>30800</v>
       </c>
       <c r="E44" s="3">
-        <v>29500</v>
+        <v>32200</v>
       </c>
       <c r="F44" s="3">
-        <v>24600</v>
+        <v>35000</v>
       </c>
       <c r="G44" s="3">
-        <v>23100</v>
+        <v>30600</v>
       </c>
       <c r="H44" s="3">
-        <v>22300</v>
+        <v>25500</v>
       </c>
       <c r="I44" s="3">
+        <v>24000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>23200</v>
+      </c>
+      <c r="K44" s="3">
         <v>21200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>21300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>22000</v>
-      </c>
-      <c r="L44" s="3">
-        <v>22500</v>
-      </c>
-      <c r="M44" s="3">
-        <v>21100</v>
       </c>
       <c r="N44" s="3">
         <v>22500</v>
       </c>
       <c r="O44" s="3">
+        <v>21100</v>
+      </c>
+      <c r="P44" s="3">
+        <v>22500</v>
+      </c>
+      <c r="Q44" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11400</v>
+        <v>10000</v>
       </c>
       <c r="E45" s="3">
-        <v>10300</v>
+        <v>12400</v>
       </c>
       <c r="F45" s="3">
-        <v>10000</v>
+        <v>11800</v>
       </c>
       <c r="G45" s="3">
-        <v>11600</v>
+        <v>10700</v>
       </c>
       <c r="H45" s="3">
-        <v>9200</v>
+        <v>10400</v>
       </c>
       <c r="I45" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K45" s="3">
         <v>8000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>5400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>5500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>4600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>5100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>4300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>97600</v>
+        <v>85900</v>
       </c>
       <c r="E46" s="3">
-        <v>121600</v>
+        <v>92200</v>
       </c>
       <c r="F46" s="3">
-        <v>138200</v>
+        <v>101300</v>
       </c>
       <c r="G46" s="3">
-        <v>115900</v>
+        <v>126200</v>
       </c>
       <c r="H46" s="3">
-        <v>138300</v>
+        <v>143500</v>
       </c>
       <c r="I46" s="3">
+        <v>120300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>143600</v>
+      </c>
+      <c r="K46" s="3">
         <v>133000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>113000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>120700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>111000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>111100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>119300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>137800</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,90 +2376,108 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>102900</v>
+        <v>99600</v>
       </c>
       <c r="E48" s="3">
-        <v>107400</v>
+        <v>104300</v>
       </c>
       <c r="F48" s="3">
-        <v>110000</v>
+        <v>106800</v>
       </c>
       <c r="G48" s="3">
-        <v>112500</v>
+        <v>111500</v>
       </c>
       <c r="H48" s="3">
-        <v>112600</v>
+        <v>114200</v>
       </c>
       <c r="I48" s="3">
+        <v>116800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>116900</v>
+      </c>
+      <c r="K48" s="3">
         <v>111700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>111200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>97400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>76700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>73300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>79600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>76600</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8300</v>
+        <v>6100</v>
       </c>
       <c r="E49" s="3">
-        <v>8900</v>
+        <v>6400</v>
       </c>
       <c r="F49" s="3">
-        <v>9800</v>
+        <v>8600</v>
       </c>
       <c r="G49" s="3">
+        <v>9300</v>
+      </c>
+      <c r="H49" s="3">
+        <v>10200</v>
+      </c>
+      <c r="I49" s="3">
+        <v>12900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K49" s="3">
+        <v>13100</v>
+      </c>
+      <c r="L49" s="3">
+        <v>13000</v>
+      </c>
+      <c r="M49" s="3">
         <v>12400</v>
       </c>
-      <c r="H49" s="3">
-        <v>13200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>13100</v>
-      </c>
-      <c r="J49" s="3">
-        <v>13000</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
+        <v>12000</v>
+      </c>
+      <c r="O49" s="3">
+        <v>11600</v>
+      </c>
+      <c r="P49" s="3">
         <v>12400</v>
       </c>
-      <c r="L49" s="3">
-        <v>12000</v>
-      </c>
-      <c r="M49" s="3">
-        <v>11600</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="Q49" s="3">
         <v>12400</v>
       </c>
-      <c r="O49" s="3">
-        <v>12400</v>
-      </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2517,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2564,61 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7500</v>
+        <v>7100</v>
       </c>
       <c r="E52" s="3">
-        <v>7700</v>
+        <v>7200</v>
       </c>
       <c r="F52" s="3">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="G52" s="3">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="H52" s="3">
+        <v>7800</v>
+      </c>
+      <c r="I52" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K52" s="3">
         <v>6900</v>
       </c>
-      <c r="I52" s="3">
-        <v>6900</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>6700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>8800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>14100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>13300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>14000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2658,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>216300</v>
+        <v>198600</v>
       </c>
       <c r="E54" s="3">
-        <v>245700</v>
+        <v>210100</v>
       </c>
       <c r="F54" s="3">
-        <v>265600</v>
+        <v>224600</v>
       </c>
       <c r="G54" s="3">
-        <v>247400</v>
+        <v>255000</v>
       </c>
       <c r="H54" s="3">
-        <v>271100</v>
+        <v>275800</v>
       </c>
       <c r="I54" s="3">
+        <v>256900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>281400</v>
+      </c>
+      <c r="K54" s="3">
         <v>264600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>243900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>239300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>213900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>209200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>225200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2728,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,75 +2747,83 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>32700</v>
+        <v>27500</v>
       </c>
       <c r="E57" s="3">
-        <v>32500</v>
+        <v>36100</v>
       </c>
       <c r="F57" s="3">
-        <v>30300</v>
+        <v>33900</v>
       </c>
       <c r="G57" s="3">
-        <v>24000</v>
+        <v>33800</v>
       </c>
       <c r="H57" s="3">
-        <v>26900</v>
+        <v>31500</v>
       </c>
       <c r="I57" s="3">
+        <v>24900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>27900</v>
+      </c>
+      <c r="K57" s="3">
         <v>21000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>27100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>27600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>26100</v>
-      </c>
-      <c r="M57" s="3">
-        <v>27700</v>
       </c>
       <c r="N57" s="3">
         <v>26100</v>
       </c>
       <c r="O57" s="3">
+        <v>27700</v>
+      </c>
+      <c r="P57" s="3">
+        <v>26100</v>
+      </c>
+      <c r="Q57" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="E58" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="F58" s="3">
-        <v>8900</v>
+        <v>4600</v>
       </c>
       <c r="G58" s="3">
-        <v>6200</v>
+        <v>4600</v>
       </c>
       <c r="H58" s="3">
-        <v>7700</v>
+        <v>9200</v>
       </c>
       <c r="I58" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1200</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>10</v>
@@ -2564,178 +2831,208 @@
       <c r="M58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>14400</v>
+      </c>
+      <c r="F59" s="3">
+        <v>19100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>19700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>10600</v>
+      </c>
+      <c r="I59" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K59" s="3">
+        <v>16900</v>
+      </c>
+      <c r="L59" s="3">
+        <v>14600</v>
+      </c>
+      <c r="M59" s="3">
+        <v>19200</v>
+      </c>
+      <c r="N59" s="3">
         <v>18400</v>
       </c>
-      <c r="E59" s="3">
-        <v>19000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>10200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>15400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>14300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>16900</v>
-      </c>
-      <c r="J59" s="3">
-        <v>14600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>19200</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>18400</v>
       </c>
-      <c r="M59" s="3">
-        <v>18400</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>18000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>55500</v>
+        <v>49800</v>
       </c>
       <c r="E60" s="3">
-        <v>55900</v>
+        <v>55000</v>
       </c>
       <c r="F60" s="3">
-        <v>49400</v>
+        <v>57600</v>
       </c>
       <c r="G60" s="3">
-        <v>45600</v>
+        <v>58100</v>
       </c>
       <c r="H60" s="3">
-        <v>48800</v>
+        <v>51300</v>
       </c>
       <c r="I60" s="3">
+        <v>47300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>50700</v>
+      </c>
+      <c r="K60" s="3">
         <v>39100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>41800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>46800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>44500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>46100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>44200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>50400</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>87800</v>
+        <v>85900</v>
       </c>
       <c r="E61" s="3">
-        <v>90100</v>
+        <v>85700</v>
       </c>
       <c r="F61" s="3">
-        <v>89700</v>
+        <v>91200</v>
       </c>
       <c r="G61" s="3">
-        <v>54100</v>
+        <v>93600</v>
       </c>
       <c r="H61" s="3">
-        <v>55500</v>
+        <v>93100</v>
       </c>
       <c r="I61" s="3">
+        <v>56200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>57700</v>
+      </c>
+      <c r="K61" s="3">
         <v>46400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>6800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>6900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2900</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>36800</v>
+        <v>38100</v>
       </c>
       <c r="E62" s="3">
-        <v>37900</v>
+        <v>40300</v>
       </c>
       <c r="F62" s="3">
-        <v>36300</v>
+        <v>38200</v>
       </c>
       <c r="G62" s="3">
-        <v>38500</v>
+        <v>39400</v>
       </c>
       <c r="H62" s="3">
-        <v>37300</v>
+        <v>37700</v>
       </c>
       <c r="I62" s="3">
+        <v>40000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K62" s="3">
         <v>38700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>40200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>32900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>17400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>18400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>20700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3072,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3119,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3166,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>180100</v>
+        <v>173800</v>
       </c>
       <c r="E66" s="3">
-        <v>184000</v>
+        <v>181000</v>
       </c>
       <c r="F66" s="3">
-        <v>175400</v>
+        <v>187000</v>
       </c>
       <c r="G66" s="3">
-        <v>138300</v>
+        <v>191000</v>
       </c>
       <c r="H66" s="3">
-        <v>141700</v>
+        <v>182100</v>
       </c>
       <c r="I66" s="3">
+        <v>143600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>147100</v>
+      </c>
+      <c r="K66" s="3">
         <v>124200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>88700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>86600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>64800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>64600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>64900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3236,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3279,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3326,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3373,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3420,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-204600</v>
+        <v>-229900</v>
       </c>
       <c r="E72" s="3">
-        <v>-178900</v>
+        <v>-221700</v>
       </c>
       <c r="F72" s="3">
-        <v>-148200</v>
+        <v>-212400</v>
       </c>
       <c r="G72" s="3">
-        <v>-126900</v>
+        <v>-185800</v>
       </c>
       <c r="H72" s="3">
-        <v>-106300</v>
+        <v>-153900</v>
       </c>
       <c r="I72" s="3">
+        <v>-131800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-110400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-92900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-76300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-69200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-65000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-65300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-59000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-49300</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3514,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3561,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3608,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>36200</v>
+        <v>24900</v>
       </c>
       <c r="E76" s="3">
-        <v>61700</v>
+        <v>29100</v>
       </c>
       <c r="F76" s="3">
-        <v>90300</v>
+        <v>37600</v>
       </c>
       <c r="G76" s="3">
-        <v>109100</v>
+        <v>64000</v>
       </c>
       <c r="H76" s="3">
-        <v>129300</v>
+        <v>93700</v>
       </c>
       <c r="I76" s="3">
+        <v>113300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>134300</v>
+      </c>
+      <c r="K76" s="3">
         <v>140400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>155200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>152700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>149100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>144600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>160300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3702,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-25700</v>
+        <v>-8200</v>
       </c>
       <c r="E81" s="3">
-        <v>-30700</v>
+        <v>-9300</v>
       </c>
       <c r="F81" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-21300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-20500</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-16600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-5600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-6800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-9700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3824,57 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F83" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G83" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H83" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I83" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K83" s="3">
         <v>4500</v>
       </c>
-      <c r="E83" s="3">
-        <v>6200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>5200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>5100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>4600</v>
-      </c>
-      <c r="I83" s="3">
-        <v>4500</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>4000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>3600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>3500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>4000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>3800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3914,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3961,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4008,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4055,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +4102,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-23700</v>
+        <v>4500</v>
       </c>
       <c r="E89" s="3">
-        <v>-25400</v>
+        <v>-14700</v>
       </c>
       <c r="F89" s="3">
-        <v>-9300</v>
+        <v>-24600</v>
       </c>
       <c r="G89" s="3">
-        <v>-16300</v>
+        <v>-26300</v>
       </c>
       <c r="H89" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-16100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>6800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>7500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>3000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-5800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +4172,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3742,40 +4183,46 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>13300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-2300</v>
-      </c>
       <c r="H91" s="3">
-        <v>-7700</v>
+        <v>13800</v>
       </c>
       <c r="I91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-12300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-5700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-6300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4262,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4309,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2200</v>
       </c>
-      <c r="F94" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-2900</v>
-      </c>
       <c r="H94" s="3">
-        <v>-8600</v>
+        <v>-2700</v>
       </c>
       <c r="I94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-12900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-4300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-5000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-6500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4379,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4422,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4469,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4516,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4563,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1100</v>
       </c>
-      <c r="F100" s="3">
-        <v>35100</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>36500</v>
+      </c>
+      <c r="I100" s="3">
         <v>-700</v>
       </c>
-      <c r="H100" s="3">
-        <v>9700</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K100" s="3">
         <v>39100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>4500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>3200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4128,77 +4625,89 @@
         <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F101" s="3">
+        <v>100</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
-        <v>500</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>600</v>
+      </c>
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-25500</v>
+        <v>5300</v>
       </c>
       <c r="E102" s="3">
-        <v>-28400</v>
+        <v>-17300</v>
       </c>
       <c r="F102" s="3">
-        <v>23100</v>
+        <v>-26500</v>
       </c>
       <c r="G102" s="3">
-        <v>-20000</v>
+        <v>-29500</v>
       </c>
       <c r="H102" s="3">
+        <v>24000</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="J102" s="3">
         <v>1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>18600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-6500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>7900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-4700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-12100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>58600</v>
+        <v>49500</v>
       </c>
       <c r="E8" s="3">
-        <v>64600</v>
+        <v>57200</v>
       </c>
       <c r="F8" s="3">
-        <v>61800</v>
+        <v>63000</v>
       </c>
       <c r="G8" s="3">
-        <v>53000</v>
+        <v>60300</v>
       </c>
       <c r="H8" s="3">
-        <v>59300</v>
+        <v>51700</v>
       </c>
       <c r="I8" s="3">
-        <v>47200</v>
+        <v>57900</v>
       </c>
       <c r="J8" s="3">
+        <v>46000</v>
+      </c>
+      <c r="K8" s="3">
         <v>56800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>39300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>56200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>60300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>53800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>52200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>68200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>42600</v>
+        <v>37800</v>
       </c>
       <c r="E9" s="3">
-        <v>54900</v>
+        <v>41600</v>
       </c>
       <c r="F9" s="3">
-        <v>53100</v>
+        <v>53600</v>
       </c>
       <c r="G9" s="3">
-        <v>48400</v>
+        <v>51900</v>
       </c>
       <c r="H9" s="3">
-        <v>47700</v>
+        <v>47200</v>
       </c>
       <c r="I9" s="3">
-        <v>43800</v>
+        <v>46600</v>
       </c>
       <c r="J9" s="3">
+        <v>42700</v>
+      </c>
+      <c r="K9" s="3">
         <v>44100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>34800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>40800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>39100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>35600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>37800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>51000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>16000</v>
+        <v>11700</v>
       </c>
       <c r="E10" s="3">
-        <v>9600</v>
+        <v>15600</v>
       </c>
       <c r="F10" s="3">
-        <v>8700</v>
+        <v>9400</v>
       </c>
       <c r="G10" s="3">
-        <v>4600</v>
+        <v>8500</v>
       </c>
       <c r="H10" s="3">
-        <v>11600</v>
+        <v>4500</v>
       </c>
       <c r="I10" s="3">
-        <v>3400</v>
+        <v>11300</v>
       </c>
       <c r="J10" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K10" s="3">
         <v>12800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>15400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>21200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>18200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>14400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>17300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E12" s="3">
         <v>2500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2300</v>
       </c>
-      <c r="F12" s="3">
-        <v>2600</v>
-      </c>
       <c r="G12" s="3">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H12" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="I12" s="3">
         <v>3000</v>
       </c>
       <c r="J12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K12" s="3">
         <v>2700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,55 +1005,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E14" s="3">
         <v>1600</v>
       </c>
-      <c r="E14" s="3">
-        <v>-5100</v>
-      </c>
       <c r="F14" s="3">
-        <v>7100</v>
+        <v>-5000</v>
       </c>
       <c r="G14" s="3">
-        <v>4300</v>
+        <v>6900</v>
       </c>
       <c r="H14" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3">
-        <v>-4100</v>
-      </c>
       <c r="J14" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K14" s="3">
         <v>-4700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-5400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-5200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-5900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-5500</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>2500</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>64500</v>
+        <v>63000</v>
       </c>
       <c r="E17" s="3">
-        <v>74100</v>
+        <v>63000</v>
       </c>
       <c r="F17" s="3">
-        <v>88400</v>
+        <v>72300</v>
       </c>
       <c r="G17" s="3">
-        <v>82000</v>
+        <v>86300</v>
       </c>
       <c r="H17" s="3">
         <v>80000</v>
       </c>
       <c r="I17" s="3">
-        <v>68000</v>
+        <v>78100</v>
       </c>
       <c r="J17" s="3">
+        <v>66400</v>
+      </c>
+      <c r="K17" s="3">
         <v>68800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>55000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>59800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>57800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>52000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>63800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>80800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>74500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-5900</v>
+        <v>-13500</v>
       </c>
       <c r="E18" s="3">
-        <v>-9500</v>
+        <v>-5700</v>
       </c>
       <c r="F18" s="3">
-        <v>-26600</v>
+        <v>-9300</v>
       </c>
       <c r="G18" s="3">
-        <v>-29000</v>
+        <v>-26000</v>
       </c>
       <c r="H18" s="3">
-        <v>-20700</v>
+        <v>-28300</v>
       </c>
       <c r="I18" s="3">
-        <v>-20800</v>
+        <v>-20200</v>
       </c>
       <c r="J18" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-12000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-15700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-11500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,131 +1244,138 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
-        <v>2000</v>
-      </c>
       <c r="F20" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
-        <v>800</v>
-      </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2400</v>
+        <v>-10200</v>
       </c>
       <c r="E21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1700</v>
       </c>
-      <c r="F21" s="3">
-        <v>-20200</v>
-      </c>
       <c r="G21" s="3">
-        <v>-23600</v>
+        <v>-19700</v>
       </c>
       <c r="H21" s="3">
-        <v>-16100</v>
+        <v>-23100</v>
       </c>
       <c r="I21" s="3">
-        <v>-14800</v>
+        <v>-15800</v>
       </c>
       <c r="J21" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-7300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E22" s="3">
         <v>1700</v>
       </c>
-      <c r="E22" s="3">
-        <v>1800</v>
-      </c>
       <c r="F22" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G22" s="3">
         <v>1800</v>
       </c>
       <c r="H22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I22" s="3">
         <v>1400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1100</v>
       </c>
       <c r="J22" s="3">
         <v>1100</v>
       </c>
       <c r="K22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L22" s="3">
         <v>700</v>
-      </c>
-      <c r="L22" s="3">
-        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1344,110 +1384,119 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-8100</v>
+        <v>-15400</v>
       </c>
       <c r="E23" s="3">
-        <v>-9300</v>
+        <v>-7900</v>
       </c>
       <c r="F23" s="3">
-        <v>-26700</v>
+        <v>-9100</v>
       </c>
       <c r="G23" s="3">
-        <v>-31900</v>
+        <v>-26000</v>
       </c>
       <c r="H23" s="3">
-        <v>-22900</v>
+        <v>-31100</v>
       </c>
       <c r="I23" s="3">
-        <v>-21200</v>
+        <v>-22400</v>
       </c>
       <c r="J23" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-13200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-16600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
+        <v>300</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>100</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-8200</v>
+        <v>-15400</v>
       </c>
       <c r="E26" s="3">
-        <v>-9300</v>
+        <v>-8000</v>
       </c>
       <c r="F26" s="3">
-        <v>-26700</v>
+        <v>-9100</v>
       </c>
       <c r="G26" s="3">
-        <v>-31900</v>
+        <v>-26000</v>
       </c>
       <c r="H26" s="3">
-        <v>-22100</v>
+        <v>-31100</v>
       </c>
       <c r="I26" s="3">
-        <v>-21300</v>
+        <v>-21600</v>
       </c>
       <c r="J26" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-13500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-16600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-8200</v>
+        <v>-15400</v>
       </c>
       <c r="E27" s="3">
-        <v>-9300</v>
+        <v>-8000</v>
       </c>
       <c r="F27" s="3">
-        <v>-26700</v>
+        <v>-9100</v>
       </c>
       <c r="G27" s="3">
-        <v>-31900</v>
+        <v>-26000</v>
       </c>
       <c r="H27" s="3">
-        <v>-22100</v>
+        <v>-31100</v>
       </c>
       <c r="I27" s="3">
-        <v>-21300</v>
+        <v>-21600</v>
       </c>
       <c r="J27" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-13500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-16600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
-        <v>-2000</v>
-      </c>
       <c r="F32" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="G32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
-        <v>-800</v>
-      </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-8200</v>
+        <v>-15400</v>
       </c>
       <c r="E33" s="3">
-        <v>-9300</v>
+        <v>-8000</v>
       </c>
       <c r="F33" s="3">
-        <v>-26700</v>
+        <v>-9100</v>
       </c>
       <c r="G33" s="3">
-        <v>-31900</v>
+        <v>-26000</v>
       </c>
       <c r="H33" s="3">
-        <v>-22100</v>
+        <v>-31100</v>
       </c>
       <c r="I33" s="3">
-        <v>-21300</v>
+        <v>-21600</v>
       </c>
       <c r="J33" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-13500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-16600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-8200</v>
+        <v>-15400</v>
       </c>
       <c r="E35" s="3">
-        <v>-9300</v>
+        <v>-8000</v>
       </c>
       <c r="F35" s="3">
-        <v>-26700</v>
+        <v>-9100</v>
       </c>
       <c r="G35" s="3">
-        <v>-31900</v>
+        <v>-26000</v>
       </c>
       <c r="H35" s="3">
-        <v>-22100</v>
+        <v>-31100</v>
       </c>
       <c r="I35" s="3">
-        <v>-21300</v>
+        <v>-21600</v>
       </c>
       <c r="J35" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-13500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-16600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="E41" s="3">
-        <v>9400</v>
+        <v>14600</v>
       </c>
       <c r="F41" s="3">
-        <v>27300</v>
+        <v>9200</v>
       </c>
       <c r="G41" s="3">
-        <v>53700</v>
+        <v>26600</v>
       </c>
       <c r="H41" s="3">
-        <v>83400</v>
+        <v>52500</v>
       </c>
       <c r="I41" s="3">
-        <v>59900</v>
+        <v>81400</v>
       </c>
       <c r="J41" s="3">
+        <v>58400</v>
+      </c>
+      <c r="K41" s="3">
         <v>80600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>78100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>61100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>66100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>56900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>55400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>60500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>72600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,196 +2237,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>30200</v>
+        <v>20100</v>
       </c>
       <c r="E43" s="3">
-        <v>38100</v>
+        <v>29400</v>
       </c>
       <c r="F43" s="3">
-        <v>27200</v>
+        <v>37200</v>
       </c>
       <c r="G43" s="3">
-        <v>31200</v>
+        <v>26600</v>
       </c>
       <c r="H43" s="3">
-        <v>24300</v>
+        <v>30500</v>
       </c>
       <c r="I43" s="3">
-        <v>24500</v>
+        <v>23700</v>
       </c>
       <c r="J43" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K43" s="3">
         <v>30300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>25600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>25200</v>
-      </c>
-      <c r="M43" s="3">
-        <v>27100</v>
       </c>
       <c r="N43" s="3">
         <v>27100</v>
       </c>
       <c r="O43" s="3">
+        <v>27100</v>
+      </c>
+      <c r="P43" s="3">
         <v>29500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>32000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>30800</v>
+        <v>28300</v>
       </c>
       <c r="E44" s="3">
-        <v>32200</v>
+        <v>30000</v>
       </c>
       <c r="F44" s="3">
-        <v>35000</v>
+        <v>31400</v>
       </c>
       <c r="G44" s="3">
-        <v>30600</v>
+        <v>34100</v>
       </c>
       <c r="H44" s="3">
-        <v>25500</v>
+        <v>29900</v>
       </c>
       <c r="I44" s="3">
-        <v>24000</v>
+        <v>24900</v>
       </c>
       <c r="J44" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K44" s="3">
         <v>23200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>21200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>21300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>22000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>22500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>21100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>22500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10000</v>
+        <v>9300</v>
       </c>
       <c r="E45" s="3">
-        <v>12400</v>
+        <v>9800</v>
       </c>
       <c r="F45" s="3">
-        <v>11800</v>
+        <v>12200</v>
       </c>
       <c r="G45" s="3">
-        <v>10700</v>
+        <v>11500</v>
       </c>
       <c r="H45" s="3">
         <v>10400</v>
       </c>
       <c r="I45" s="3">
-        <v>12000</v>
+        <v>10100</v>
       </c>
       <c r="J45" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K45" s="3">
         <v>9500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>85900</v>
+        <v>68800</v>
       </c>
       <c r="E46" s="3">
-        <v>92200</v>
+        <v>83900</v>
       </c>
       <c r="F46" s="3">
-        <v>101300</v>
+        <v>90000</v>
       </c>
       <c r="G46" s="3">
-        <v>126200</v>
+        <v>98900</v>
       </c>
       <c r="H46" s="3">
-        <v>143500</v>
+        <v>123200</v>
       </c>
       <c r="I46" s="3">
-        <v>120300</v>
+        <v>140100</v>
       </c>
       <c r="J46" s="3">
+        <v>117500</v>
+      </c>
+      <c r="K46" s="3">
         <v>143600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>133000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>113000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>120700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>111000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>111100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>119300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>137800</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,55 +2487,61 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>99600</v>
+        <v>106400</v>
       </c>
       <c r="E48" s="3">
+        <v>97200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>101800</v>
+      </c>
+      <c r="G48" s="3">
         <v>104300</v>
       </c>
-      <c r="F48" s="3">
-        <v>106800</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
+        <v>108900</v>
+      </c>
+      <c r="I48" s="3">
         <v>111500</v>
       </c>
-      <c r="H48" s="3">
-        <v>114200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>116800</v>
-      </c>
       <c r="J48" s="3">
+        <v>114100</v>
+      </c>
+      <c r="K48" s="3">
         <v>116900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>111700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>111200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>97400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>76700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>73300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>79600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>76600</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2438,46 +2549,49 @@
         <v>6100</v>
       </c>
       <c r="E49" s="3">
-        <v>6400</v>
+        <v>5900</v>
       </c>
       <c r="F49" s="3">
-        <v>8600</v>
+        <v>6300</v>
       </c>
       <c r="G49" s="3">
-        <v>9300</v>
+        <v>8400</v>
       </c>
       <c r="H49" s="3">
-        <v>10200</v>
+        <v>9100</v>
       </c>
       <c r="I49" s="3">
-        <v>12900</v>
+        <v>10000</v>
       </c>
       <c r="J49" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K49" s="3">
         <v>13700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11600</v>
-      </c>
-      <c r="P49" s="3">
-        <v>12400</v>
       </c>
       <c r="Q49" s="3">
         <v>12400</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="E52" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="F52" s="3">
-        <v>7800</v>
+        <v>7000</v>
       </c>
       <c r="G52" s="3">
-        <v>8000</v>
+        <v>7600</v>
       </c>
       <c r="H52" s="3">
         <v>7800</v>
       </c>
       <c r="I52" s="3">
-        <v>6800</v>
+        <v>7600</v>
       </c>
       <c r="J52" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K52" s="3">
         <v>7200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>14100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>14000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>198600</v>
+        <v>188000</v>
       </c>
       <c r="E54" s="3">
-        <v>210100</v>
+        <v>193900</v>
       </c>
       <c r="F54" s="3">
-        <v>224600</v>
+        <v>205100</v>
       </c>
       <c r="G54" s="3">
-        <v>255000</v>
+        <v>219200</v>
       </c>
       <c r="H54" s="3">
-        <v>275800</v>
+        <v>249000</v>
       </c>
       <c r="I54" s="3">
-        <v>256900</v>
+        <v>269200</v>
       </c>
       <c r="J54" s="3">
+        <v>250800</v>
+      </c>
+      <c r="K54" s="3">
         <v>281400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>264600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>243900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>239300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>213900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>209200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>225200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,84 +2879,88 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>27500</v>
+        <v>22500</v>
       </c>
       <c r="E57" s="3">
-        <v>36100</v>
+        <v>26800</v>
       </c>
       <c r="F57" s="3">
-        <v>33900</v>
+        <v>35200</v>
       </c>
       <c r="G57" s="3">
-        <v>33800</v>
+        <v>33100</v>
       </c>
       <c r="H57" s="3">
-        <v>31500</v>
+        <v>33000</v>
       </c>
       <c r="I57" s="3">
-        <v>24900</v>
+        <v>30700</v>
       </c>
       <c r="J57" s="3">
+        <v>24300</v>
+      </c>
+      <c r="K57" s="3">
         <v>27900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>21000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>27100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>27600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>26100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>27700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>26100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="E58" s="3">
         <v>4500</v>
       </c>
       <c r="F58" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="G58" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="H58" s="3">
-        <v>9200</v>
+        <v>4500</v>
       </c>
       <c r="I58" s="3">
-        <v>6400</v>
+        <v>9000</v>
       </c>
       <c r="J58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K58" s="3">
         <v>8000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1200</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>10</v>
@@ -2837,202 +2971,217 @@
       <c r="O58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17700</v>
+        <v>18500</v>
       </c>
       <c r="E59" s="3">
-        <v>14400</v>
+        <v>17300</v>
       </c>
       <c r="F59" s="3">
-        <v>19100</v>
+        <v>14100</v>
       </c>
       <c r="G59" s="3">
-        <v>19700</v>
+        <v>18700</v>
       </c>
       <c r="H59" s="3">
-        <v>10600</v>
+        <v>19200</v>
       </c>
       <c r="I59" s="3">
-        <v>16000</v>
+        <v>10400</v>
       </c>
       <c r="J59" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K59" s="3">
         <v>14800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>18400</v>
       </c>
       <c r="O59" s="3">
         <v>18400</v>
       </c>
       <c r="P59" s="3">
+        <v>18400</v>
+      </c>
+      <c r="Q59" s="3">
         <v>18000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>49800</v>
+        <v>45400</v>
       </c>
       <c r="E60" s="3">
-        <v>55000</v>
+        <v>48600</v>
       </c>
       <c r="F60" s="3">
-        <v>57600</v>
+        <v>53700</v>
       </c>
       <c r="G60" s="3">
-        <v>58100</v>
+        <v>56200</v>
       </c>
       <c r="H60" s="3">
-        <v>51300</v>
+        <v>56700</v>
       </c>
       <c r="I60" s="3">
-        <v>47300</v>
+        <v>50100</v>
       </c>
       <c r="J60" s="3">
+        <v>46200</v>
+      </c>
+      <c r="K60" s="3">
         <v>50700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>39100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>41800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>46800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>44500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>46100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>44200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>50400</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>85900</v>
+        <v>83200</v>
       </c>
       <c r="E61" s="3">
-        <v>85700</v>
+        <v>83900</v>
       </c>
       <c r="F61" s="3">
-        <v>91200</v>
+        <v>83700</v>
       </c>
       <c r="G61" s="3">
-        <v>93600</v>
+        <v>89000</v>
       </c>
       <c r="H61" s="3">
-        <v>93100</v>
+        <v>91400</v>
       </c>
       <c r="I61" s="3">
-        <v>56200</v>
+        <v>90900</v>
       </c>
       <c r="J61" s="3">
+        <v>54900</v>
+      </c>
+      <c r="K61" s="3">
         <v>57700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>46400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2900</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>38100</v>
+        <v>49400</v>
       </c>
       <c r="E62" s="3">
-        <v>40300</v>
+        <v>37200</v>
       </c>
       <c r="F62" s="3">
-        <v>38200</v>
+        <v>39300</v>
       </c>
       <c r="G62" s="3">
-        <v>39400</v>
+        <v>37300</v>
       </c>
       <c r="H62" s="3">
-        <v>37700</v>
+        <v>38500</v>
       </c>
       <c r="I62" s="3">
-        <v>40000</v>
+        <v>36800</v>
       </c>
       <c r="J62" s="3">
+        <v>39100</v>
+      </c>
+      <c r="K62" s="3">
         <v>38800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>38700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>40200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>32900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>17400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>20700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>173800</v>
+        <v>178100</v>
       </c>
       <c r="E66" s="3">
-        <v>181000</v>
+        <v>169600</v>
       </c>
       <c r="F66" s="3">
-        <v>187000</v>
+        <v>176700</v>
       </c>
       <c r="G66" s="3">
-        <v>191000</v>
+        <v>182600</v>
       </c>
       <c r="H66" s="3">
-        <v>182100</v>
+        <v>186500</v>
       </c>
       <c r="I66" s="3">
-        <v>143600</v>
+        <v>177800</v>
       </c>
       <c r="J66" s="3">
+        <v>140200</v>
+      </c>
+      <c r="K66" s="3">
         <v>147100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>124200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>88700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>86600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>64800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>64600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>64900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-229900</v>
+        <v>-239900</v>
       </c>
       <c r="E72" s="3">
-        <v>-221700</v>
+        <v>-224500</v>
       </c>
       <c r="F72" s="3">
-        <v>-212400</v>
+        <v>-216500</v>
       </c>
       <c r="G72" s="3">
-        <v>-185800</v>
+        <v>-207400</v>
       </c>
       <c r="H72" s="3">
-        <v>-153900</v>
+        <v>-181400</v>
       </c>
       <c r="I72" s="3">
-        <v>-131800</v>
+        <v>-150300</v>
       </c>
       <c r="J72" s="3">
+        <v>-128600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-110400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-92900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-76300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-69200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-65000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-65300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-59000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-49300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24900</v>
+        <v>10000</v>
       </c>
       <c r="E76" s="3">
-        <v>29100</v>
+        <v>24300</v>
       </c>
       <c r="F76" s="3">
-        <v>37600</v>
+        <v>28400</v>
       </c>
       <c r="G76" s="3">
-        <v>64000</v>
+        <v>36700</v>
       </c>
       <c r="H76" s="3">
-        <v>93700</v>
+        <v>62500</v>
       </c>
       <c r="I76" s="3">
-        <v>113300</v>
+        <v>91500</v>
       </c>
       <c r="J76" s="3">
+        <v>110600</v>
+      </c>
+      <c r="K76" s="3">
         <v>134300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>140400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>155200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>152700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>149100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>144600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>160300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-8200</v>
+        <v>-15400</v>
       </c>
       <c r="E81" s="3">
-        <v>-9300</v>
+        <v>-8000</v>
       </c>
       <c r="F81" s="3">
-        <v>-26700</v>
+        <v>-9100</v>
       </c>
       <c r="G81" s="3">
-        <v>-31900</v>
+        <v>-26000</v>
       </c>
       <c r="H81" s="3">
-        <v>-22100</v>
+        <v>-31100</v>
       </c>
       <c r="I81" s="3">
-        <v>-21300</v>
+        <v>-21600</v>
       </c>
       <c r="J81" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-13500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-16600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F83" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H83" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="L83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="M83" s="3">
         <v>4000</v>
       </c>
-      <c r="E83" s="3">
-        <v>5900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>6400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>5400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>5300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>4700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>4500</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P83" s="3">
         <v>4000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>3600</v>
-      </c>
-      <c r="N83" s="3">
-        <v>3500</v>
-      </c>
-      <c r="O83" s="3">
-        <v>4000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>3800</v>
       </c>
       <c r="Q83" s="3">
         <v>3800</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4500</v>
+        <v>-1300</v>
       </c>
       <c r="E89" s="3">
-        <v>-14700</v>
+        <v>4400</v>
       </c>
       <c r="F89" s="3">
-        <v>-24600</v>
+        <v>-14400</v>
       </c>
       <c r="G89" s="3">
-        <v>-26300</v>
+        <v>-24000</v>
       </c>
       <c r="H89" s="3">
-        <v>-9600</v>
+        <v>-25700</v>
       </c>
       <c r="I89" s="3">
-        <v>-16900</v>
+        <v>-9400</v>
       </c>
       <c r="J89" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-16100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>-800</v>
       </c>
       <c r="G91" s="3">
-        <v>-200</v>
+        <v>-1400</v>
       </c>
       <c r="H91" s="3">
-        <v>13800</v>
+        <v>-1600</v>
       </c>
       <c r="I91" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="J91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-8000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2700</v>
       </c>
-      <c r="I94" s="3">
-        <v>-3000</v>
-      </c>
       <c r="J94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-8900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3100</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-6500</v>
       </c>
       <c r="Q94" s="3">
         <v>-6500</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>-6500</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
-        <v>-1300</v>
-      </c>
       <c r="F100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1100</v>
       </c>
-      <c r="H100" s="3">
-        <v>36500</v>
-      </c>
       <c r="I100" s="3">
+        <v>35600</v>
+      </c>
+      <c r="J100" s="3">
         <v>-700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>10000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>39100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-200</v>
       </c>
       <c r="I101" s="3">
         <v>-200</v>
       </c>
       <c r="J101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5300</v>
+        <v>-3600</v>
       </c>
       <c r="E102" s="3">
-        <v>-17300</v>
+        <v>5100</v>
       </c>
       <c r="F102" s="3">
-        <v>-26500</v>
+        <v>-16900</v>
       </c>
       <c r="G102" s="3">
-        <v>-29500</v>
+        <v>-25800</v>
       </c>
       <c r="H102" s="3">
-        <v>24000</v>
+        <v>-28800</v>
       </c>
       <c r="I102" s="3">
-        <v>-20800</v>
+        <v>23400</v>
       </c>
       <c r="J102" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="K102" s="3">
         <v>1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>18600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRT_QTR_FIN.xlsx
@@ -744,16 +744,16 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>49500</v>
+        <v>49600</v>
       </c>
       <c r="E8" s="3">
-        <v>57200</v>
+        <v>57300</v>
       </c>
       <c r="F8" s="3">
-        <v>63000</v>
+        <v>63100</v>
       </c>
       <c r="G8" s="3">
-        <v>60300</v>
+        <v>60400</v>
       </c>
       <c r="H8" s="3">
         <v>51700</v>
@@ -762,7 +762,7 @@
         <v>57900</v>
       </c>
       <c r="J8" s="3">
-        <v>46000</v>
+        <v>46100</v>
       </c>
       <c r="K8" s="3">
         <v>56800</v>
@@ -794,19 +794,19 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>37800</v>
+        <v>37900</v>
       </c>
       <c r="E9" s="3">
-        <v>41600</v>
+        <v>41700</v>
       </c>
       <c r="F9" s="3">
-        <v>53600</v>
+        <v>53700</v>
       </c>
       <c r="G9" s="3">
         <v>51900</v>
       </c>
       <c r="H9" s="3">
-        <v>47200</v>
+        <v>47300</v>
       </c>
       <c r="I9" s="3">
         <v>46600</v>
@@ -1137,16 +1137,16 @@
         <v>63000</v>
       </c>
       <c r="F17" s="3">
-        <v>72300</v>
+        <v>72400</v>
       </c>
       <c r="G17" s="3">
         <v>86300</v>
       </c>
       <c r="H17" s="3">
-        <v>80000</v>
+        <v>80100</v>
       </c>
       <c r="I17" s="3">
-        <v>78100</v>
+        <v>78200</v>
       </c>
       <c r="J17" s="3">
         <v>66400</v>
@@ -1410,7 +1410,7 @@
         <v>-9100</v>
       </c>
       <c r="G23" s="3">
-        <v>-26000</v>
+        <v>-26100</v>
       </c>
       <c r="H23" s="3">
         <v>-31100</v>
@@ -1560,7 +1560,7 @@
         <v>-9100</v>
       </c>
       <c r="G26" s="3">
-        <v>-26000</v>
+        <v>-26100</v>
       </c>
       <c r="H26" s="3">
         <v>-31100</v>
@@ -1610,7 +1610,7 @@
         <v>-9100</v>
       </c>
       <c r="G27" s="3">
-        <v>-26000</v>
+        <v>-26100</v>
       </c>
       <c r="H27" s="3">
         <v>-31100</v>
@@ -1910,7 +1910,7 @@
         <v>-9100</v>
       </c>
       <c r="G33" s="3">
-        <v>-26000</v>
+        <v>-26100</v>
       </c>
       <c r="H33" s="3">
         <v>-31100</v>
@@ -2010,7 +2010,7 @@
         <v>-9100</v>
       </c>
       <c r="G35" s="3">
-        <v>-26000</v>
+        <v>-26100</v>
       </c>
       <c r="H35" s="3">
         <v>-31100</v>
@@ -2155,16 +2155,16 @@
         <v>9200</v>
       </c>
       <c r="G41" s="3">
-        <v>26600</v>
+        <v>26700</v>
       </c>
       <c r="H41" s="3">
         <v>52500</v>
       </c>
       <c r="I41" s="3">
-        <v>81400</v>
+        <v>81500</v>
       </c>
       <c r="J41" s="3">
-        <v>58400</v>
+        <v>58500</v>
       </c>
       <c r="K41" s="3">
         <v>80600</v>
@@ -2246,10 +2246,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20100</v>
+        <v>20200</v>
       </c>
       <c r="E43" s="3">
-        <v>29400</v>
+        <v>29500</v>
       </c>
       <c r="F43" s="3">
         <v>37200</v>
@@ -2299,13 +2299,13 @@
         <v>28300</v>
       </c>
       <c r="E44" s="3">
-        <v>30000</v>
+        <v>30100</v>
       </c>
       <c r="F44" s="3">
-        <v>31400</v>
+        <v>31500</v>
       </c>
       <c r="G44" s="3">
-        <v>34100</v>
+        <v>34200</v>
       </c>
       <c r="H44" s="3">
         <v>29900</v>
@@ -2402,19 +2402,19 @@
         <v>83900</v>
       </c>
       <c r="F46" s="3">
-        <v>90000</v>
+        <v>90100</v>
       </c>
       <c r="G46" s="3">
-        <v>98900</v>
+        <v>99000</v>
       </c>
       <c r="H46" s="3">
-        <v>123200</v>
+        <v>123300</v>
       </c>
       <c r="I46" s="3">
-        <v>140100</v>
+        <v>140200</v>
       </c>
       <c r="J46" s="3">
-        <v>117500</v>
+        <v>117600</v>
       </c>
       <c r="K46" s="3">
         <v>143600</v>
@@ -2496,19 +2496,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>106400</v>
+        <v>106500</v>
       </c>
       <c r="E48" s="3">
-        <v>97200</v>
+        <v>97300</v>
       </c>
       <c r="F48" s="3">
-        <v>101800</v>
+        <v>101900</v>
       </c>
       <c r="G48" s="3">
         <v>104300</v>
       </c>
       <c r="H48" s="3">
-        <v>108900</v>
+        <v>109000</v>
       </c>
       <c r="I48" s="3">
         <v>111500</v>
@@ -2549,7 +2549,7 @@
         <v>6100</v>
       </c>
       <c r="E49" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="F49" s="3">
         <v>6300</v>
@@ -2796,25 +2796,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>188000</v>
+        <v>188100</v>
       </c>
       <c r="E54" s="3">
-        <v>193900</v>
+        <v>194000</v>
       </c>
       <c r="F54" s="3">
-        <v>205100</v>
+        <v>205200</v>
       </c>
       <c r="G54" s="3">
-        <v>219200</v>
+        <v>219400</v>
       </c>
       <c r="H54" s="3">
-        <v>249000</v>
+        <v>249100</v>
       </c>
       <c r="I54" s="3">
-        <v>269200</v>
+        <v>269400</v>
       </c>
       <c r="J54" s="3">
-        <v>250800</v>
+        <v>250900</v>
       </c>
       <c r="K54" s="3">
         <v>281400</v>
@@ -2889,10 +2889,10 @@
         <v>22500</v>
       </c>
       <c r="E57" s="3">
-        <v>26800</v>
+        <v>26900</v>
       </c>
       <c r="F57" s="3">
-        <v>35200</v>
+        <v>35300</v>
       </c>
       <c r="G57" s="3">
         <v>33100</v>
@@ -2942,7 +2942,7 @@
         <v>4500</v>
       </c>
       <c r="F58" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="G58" s="3">
         <v>4500</v>
@@ -3036,7 +3036,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>45400</v>
+        <v>45500</v>
       </c>
       <c r="E60" s="3">
         <v>48600</v>
@@ -3045,7 +3045,7 @@
         <v>53700</v>
       </c>
       <c r="G60" s="3">
-        <v>56200</v>
+        <v>56300</v>
       </c>
       <c r="H60" s="3">
         <v>56700</v>
@@ -3086,7 +3086,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>83200</v>
+        <v>83300</v>
       </c>
       <c r="E61" s="3">
         <v>83900</v>
@@ -3095,7 +3095,7 @@
         <v>83700</v>
       </c>
       <c r="G61" s="3">
-        <v>89000</v>
+        <v>89100</v>
       </c>
       <c r="H61" s="3">
         <v>91400</v>
@@ -3142,7 +3142,7 @@
         <v>37200</v>
       </c>
       <c r="F62" s="3">
-        <v>39300</v>
+        <v>39400</v>
       </c>
       <c r="G62" s="3">
         <v>37300</v>
@@ -3336,22 +3336,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>178100</v>
+        <v>178200</v>
       </c>
       <c r="E66" s="3">
-        <v>169600</v>
+        <v>169700</v>
       </c>
       <c r="F66" s="3">
-        <v>176700</v>
+        <v>176800</v>
       </c>
       <c r="G66" s="3">
-        <v>182600</v>
+        <v>182700</v>
       </c>
       <c r="H66" s="3">
-        <v>186500</v>
+        <v>186600</v>
       </c>
       <c r="I66" s="3">
-        <v>177800</v>
+        <v>177900</v>
       </c>
       <c r="J66" s="3">
         <v>140200</v>
@@ -3606,25 +3606,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-239900</v>
+        <v>-240000</v>
       </c>
       <c r="E72" s="3">
-        <v>-224500</v>
+        <v>-224600</v>
       </c>
       <c r="F72" s="3">
-        <v>-216500</v>
+        <v>-216600</v>
       </c>
       <c r="G72" s="3">
-        <v>-207400</v>
+        <v>-207500</v>
       </c>
       <c r="H72" s="3">
-        <v>-181400</v>
+        <v>-181500</v>
       </c>
       <c r="I72" s="3">
         <v>-150300</v>
       </c>
       <c r="J72" s="3">
-        <v>-128600</v>
+        <v>-128700</v>
       </c>
       <c r="K72" s="3">
         <v>-110400</v>
@@ -3824,7 +3824,7 @@
         <v>91500</v>
       </c>
       <c r="J76" s="3">
-        <v>110600</v>
+        <v>110700</v>
       </c>
       <c r="K76" s="3">
         <v>134300</v>
@@ -3970,7 +3970,7 @@
         <v>-9100</v>
       </c>
       <c r="G81" s="3">
-        <v>-26000</v>
+        <v>-26100</v>
       </c>
       <c r="H81" s="3">
         <v>-31100</v>
@@ -4930,7 +4930,7 @@
         <v>-16900</v>
       </c>
       <c r="G102" s="3">
-        <v>-25800</v>
+        <v>-25900</v>
       </c>
       <c r="H102" s="3">
         <v>-28800</v>

--- a/AAII_Financials/Quarterly/DRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DRT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,257 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>49600</v>
+        <v>68100</v>
       </c>
       <c r="E8" s="3">
-        <v>57300</v>
+        <v>61600</v>
       </c>
       <c r="F8" s="3">
-        <v>63100</v>
+        <v>50500</v>
       </c>
       <c r="G8" s="3">
-        <v>60400</v>
+        <v>58300</v>
       </c>
       <c r="H8" s="3">
-        <v>51700</v>
+        <v>64200</v>
       </c>
       <c r="I8" s="3">
+        <v>61500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>52700</v>
+      </c>
+      <c r="K8" s="3">
         <v>57900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>46100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>56800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>39300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>56200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>60300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>53800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>52200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>68200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>83900</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>37900</v>
+        <v>44700</v>
       </c>
       <c r="E9" s="3">
-        <v>41700</v>
+        <v>41500</v>
       </c>
       <c r="F9" s="3">
-        <v>53700</v>
+        <v>38500</v>
       </c>
       <c r="G9" s="3">
+        <v>42400</v>
+      </c>
+      <c r="H9" s="3">
+        <v>54700</v>
+      </c>
+      <c r="I9" s="3">
+        <v>52900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>48100</v>
+      </c>
+      <c r="K9" s="3">
+        <v>46600</v>
+      </c>
+      <c r="L9" s="3">
+        <v>42700</v>
+      </c>
+      <c r="M9" s="3">
+        <v>44100</v>
+      </c>
+      <c r="N9" s="3">
+        <v>34800</v>
+      </c>
+      <c r="O9" s="3">
+        <v>40800</v>
+      </c>
+      <c r="P9" s="3">
+        <v>39100</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>35600</v>
+      </c>
+      <c r="R9" s="3">
+        <v>37800</v>
+      </c>
+      <c r="S9" s="3">
+        <v>51000</v>
+      </c>
+      <c r="T9" s="3">
         <v>51900</v>
       </c>
-      <c r="H9" s="3">
-        <v>47300</v>
-      </c>
-      <c r="I9" s="3">
-        <v>46600</v>
-      </c>
-      <c r="J9" s="3">
-        <v>42700</v>
-      </c>
-      <c r="K9" s="3">
-        <v>44100</v>
-      </c>
-      <c r="L9" s="3">
-        <v>34800</v>
-      </c>
-      <c r="M9" s="3">
-        <v>40800</v>
-      </c>
-      <c r="N9" s="3">
-        <v>39100</v>
-      </c>
-      <c r="O9" s="3">
-        <v>35600</v>
-      </c>
-      <c r="P9" s="3">
-        <v>37800</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>51000</v>
-      </c>
-      <c r="R9" s="3">
-        <v>51900</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11700</v>
+        <v>23400</v>
       </c>
       <c r="E10" s="3">
-        <v>15600</v>
+        <v>20100</v>
       </c>
       <c r="F10" s="3">
-        <v>9400</v>
+        <v>11900</v>
       </c>
       <c r="G10" s="3">
-        <v>8500</v>
+        <v>15900</v>
       </c>
       <c r="H10" s="3">
+        <v>9600</v>
+      </c>
+      <c r="I10" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J10" s="3">
         <v>4500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>11300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>12800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>4500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>15400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>21200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>18200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>14400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>17300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>32000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +934,66 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F12" s="3">
         <v>2100</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2300</v>
       </c>
       <c r="G12" s="3">
         <v>2500</v>
       </c>
       <c r="H12" s="3">
-        <v>2900</v>
+        <v>2300</v>
       </c>
       <c r="I12" s="3">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="J12" s="3">
         <v>2900</v>
       </c>
       <c r="K12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="M12" s="3">
         <v>2700</v>
-      </c>
-      <c r="L12" s="3">
-        <v>2600</v>
-      </c>
-      <c r="M12" s="3">
-        <v>2500</v>
       </c>
       <c r="N12" s="3">
         <v>2600</v>
       </c>
       <c r="O12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q12" s="3">
         <v>2700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>2800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>2500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,58 +1042,70 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1200</v>
+        <v>11400</v>
       </c>
       <c r="E14" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G14" s="3">
         <v>1600</v>
       </c>
-      <c r="F14" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>6900</v>
-      </c>
       <c r="H14" s="3">
-        <v>4200</v>
+        <v>-5100</v>
       </c>
       <c r="I14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-4000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-4700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-5400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-5200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-5900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-5500</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>2500</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>63000</v>
+        <v>76500</v>
       </c>
       <c r="E17" s="3">
-        <v>63000</v>
+        <v>64600</v>
       </c>
       <c r="F17" s="3">
-        <v>72400</v>
+        <v>64200</v>
       </c>
       <c r="G17" s="3">
-        <v>86300</v>
+        <v>64200</v>
       </c>
       <c r="H17" s="3">
-        <v>80100</v>
+        <v>73700</v>
       </c>
       <c r="I17" s="3">
+        <v>87900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>81500</v>
+      </c>
+      <c r="K17" s="3">
         <v>78200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>66400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>68800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>55000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>59800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>57800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>52000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>63800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>80800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>74500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-13500</v>
+        <v>-8400</v>
       </c>
       <c r="E18" s="3">
-        <v>-5700</v>
+        <v>-3000</v>
       </c>
       <c r="F18" s="3">
-        <v>-9300</v>
+        <v>-13700</v>
       </c>
       <c r="G18" s="3">
-        <v>-26000</v>
+        <v>-5800</v>
       </c>
       <c r="H18" s="3">
-        <v>-28300</v>
+        <v>-9500</v>
       </c>
       <c r="I18" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-20200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-20300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-12000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-15700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-12500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1311,122 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I20" s="3">
         <v>1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>3100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-10200</v>
+        <v>-4300</v>
       </c>
       <c r="E21" s="3">
-        <v>-2300</v>
+        <v>8200</v>
       </c>
       <c r="F21" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
-        <v>-19700</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-23100</v>
-      </c>
       <c r="I21" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-15800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-14400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-7300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-11400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>5500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>4100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-9200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1360,34 +1440,34 @@
         <v>1700</v>
       </c>
       <c r="G22" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H22" s="3">
         <v>1800</v>
       </c>
       <c r="I22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K22" s="3">
         <v>1400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>700</v>
-      </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
@@ -1395,58 +1475,70 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>100</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-15400</v>
+        <v>-8700</v>
       </c>
       <c r="E23" s="3">
-        <v>-7900</v>
+        <v>3000</v>
       </c>
       <c r="F23" s="3">
-        <v>-9100</v>
+        <v>-15700</v>
       </c>
       <c r="G23" s="3">
-        <v>-26100</v>
+        <v>-8100</v>
       </c>
       <c r="H23" s="3">
-        <v>-31100</v>
+        <v>-9300</v>
       </c>
       <c r="I23" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-22400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-20700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-13200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-16600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-5700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-13100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1460,43 +1552,49 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-700</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>300</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
       </c>
       <c r="M24" s="3">
+        <v>300</v>
+      </c>
+      <c r="N24" s="3">
+        <v>100</v>
+      </c>
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>4400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-3400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-15400</v>
+        <v>-8700</v>
       </c>
       <c r="E26" s="3">
-        <v>-8000</v>
+        <v>3000</v>
       </c>
       <c r="F26" s="3">
-        <v>-9100</v>
+        <v>-15700</v>
       </c>
       <c r="G26" s="3">
-        <v>-26100</v>
+        <v>-8100</v>
       </c>
       <c r="H26" s="3">
-        <v>-31100</v>
+        <v>-9300</v>
       </c>
       <c r="I26" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-21600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-20800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-13500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-16600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-5600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-9700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-15400</v>
+        <v>-8700</v>
       </c>
       <c r="E27" s="3">
-        <v>-8000</v>
+        <v>3000</v>
       </c>
       <c r="F27" s="3">
-        <v>-9100</v>
+        <v>-15700</v>
       </c>
       <c r="G27" s="3">
-        <v>-26100</v>
+        <v>-8100</v>
       </c>
       <c r="H27" s="3">
-        <v>-31100</v>
+        <v>-9300</v>
       </c>
       <c r="I27" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-21600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-20800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-13500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-16600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-5600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-9700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1979,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-15400</v>
+        <v>-8700</v>
       </c>
       <c r="E33" s="3">
-        <v>-8000</v>
+        <v>3000</v>
       </c>
       <c r="F33" s="3">
-        <v>-9100</v>
+        <v>-15700</v>
       </c>
       <c r="G33" s="3">
-        <v>-26100</v>
+        <v>-8100</v>
       </c>
       <c r="H33" s="3">
-        <v>-31100</v>
+        <v>-9300</v>
       </c>
       <c r="I33" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-21600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-20800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-13500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-16600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-5600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-9700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-15400</v>
+        <v>-8700</v>
       </c>
       <c r="E35" s="3">
-        <v>-8000</v>
+        <v>3000</v>
       </c>
       <c r="F35" s="3">
-        <v>-9100</v>
+        <v>-15700</v>
       </c>
       <c r="G35" s="3">
-        <v>-26100</v>
+        <v>-8100</v>
       </c>
       <c r="H35" s="3">
-        <v>-31100</v>
+        <v>-9300</v>
       </c>
       <c r="I35" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-21600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-20800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-13500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-16600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-5600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-9700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2312,66 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>11000</v>
+        <v>26800</v>
       </c>
       <c r="E41" s="3">
-        <v>14600</v>
+        <v>25900</v>
       </c>
       <c r="F41" s="3">
-        <v>9200</v>
+        <v>11200</v>
       </c>
       <c r="G41" s="3">
-        <v>26700</v>
+        <v>14900</v>
       </c>
       <c r="H41" s="3">
-        <v>52500</v>
+        <v>9400</v>
       </c>
       <c r="I41" s="3">
+        <v>27200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>53500</v>
+      </c>
+      <c r="K41" s="3">
         <v>81500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>58500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>80600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>78100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>61100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>66100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>56900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>55400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>60500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>72600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,208 +2420,238 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20200</v>
+        <v>29400</v>
       </c>
       <c r="E43" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>20500</v>
+      </c>
+      <c r="G43" s="3">
+        <v>30000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>37900</v>
+      </c>
+      <c r="I43" s="3">
+        <v>27100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K43" s="3">
+        <v>23700</v>
+      </c>
+      <c r="L43" s="3">
+        <v>23900</v>
+      </c>
+      <c r="M43" s="3">
+        <v>30300</v>
+      </c>
+      <c r="N43" s="3">
+        <v>25600</v>
+      </c>
+      <c r="O43" s="3">
+        <v>25200</v>
+      </c>
+      <c r="P43" s="3">
+        <v>27100</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>27100</v>
+      </c>
+      <c r="R43" s="3">
         <v>29500</v>
       </c>
-      <c r="F43" s="3">
-        <v>37200</v>
-      </c>
-      <c r="G43" s="3">
-        <v>26600</v>
-      </c>
-      <c r="H43" s="3">
-        <v>30500</v>
-      </c>
-      <c r="I43" s="3">
-        <v>23700</v>
-      </c>
-      <c r="J43" s="3">
-        <v>23900</v>
-      </c>
-      <c r="K43" s="3">
-        <v>30300</v>
-      </c>
-      <c r="L43" s="3">
-        <v>25600</v>
-      </c>
-      <c r="M43" s="3">
-        <v>25200</v>
-      </c>
-      <c r="N43" s="3">
-        <v>27100</v>
-      </c>
-      <c r="O43" s="3">
-        <v>27100</v>
-      </c>
-      <c r="P43" s="3">
-        <v>29500</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>32000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>35300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>28300</v>
+        <v>23900</v>
       </c>
       <c r="E44" s="3">
-        <v>30100</v>
+        <v>26700</v>
       </c>
       <c r="F44" s="3">
-        <v>31500</v>
+        <v>28800</v>
       </c>
       <c r="G44" s="3">
-        <v>34200</v>
+        <v>30600</v>
       </c>
       <c r="H44" s="3">
-        <v>29900</v>
+        <v>32000</v>
       </c>
       <c r="I44" s="3">
+        <v>34800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>30400</v>
+      </c>
+      <c r="K44" s="3">
         <v>24900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>23500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>23200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>21200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>21300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>22000</v>
-      </c>
-      <c r="O44" s="3">
-        <v>22500</v>
-      </c>
-      <c r="P44" s="3">
-        <v>21100</v>
       </c>
       <c r="Q44" s="3">
         <v>22500</v>
       </c>
       <c r="R44" s="3">
+        <v>21100</v>
+      </c>
+      <c r="S44" s="3">
+        <v>22500</v>
+      </c>
+      <c r="T44" s="3">
         <v>24400</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9300</v>
+        <v>12800</v>
       </c>
       <c r="E45" s="3">
-        <v>9800</v>
+        <v>10300</v>
       </c>
       <c r="F45" s="3">
-        <v>12200</v>
+        <v>9500</v>
       </c>
       <c r="G45" s="3">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="H45" s="3">
-        <v>10400</v>
+        <v>12400</v>
       </c>
       <c r="I45" s="3">
+        <v>11800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K45" s="3">
         <v>10100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>11700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>9500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>8000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>5400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>5500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>4600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>5100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>4300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>68800</v>
+        <v>92900</v>
       </c>
       <c r="E46" s="3">
-        <v>83900</v>
+        <v>85100</v>
       </c>
       <c r="F46" s="3">
-        <v>90100</v>
+        <v>70100</v>
       </c>
       <c r="G46" s="3">
-        <v>99000</v>
+        <v>85500</v>
       </c>
       <c r="H46" s="3">
-        <v>123300</v>
+        <v>91700</v>
       </c>
       <c r="I46" s="3">
+        <v>100800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>125600</v>
+      </c>
+      <c r="K46" s="3">
         <v>140200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>117600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>143600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>133000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>113000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>120700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>111000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>111100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>119300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>137800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,108 +2700,126 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>106500</v>
+        <v>78200</v>
       </c>
       <c r="E48" s="3">
-        <v>97300</v>
+        <v>105200</v>
       </c>
       <c r="F48" s="3">
-        <v>101900</v>
+        <v>108400</v>
       </c>
       <c r="G48" s="3">
-        <v>104300</v>
+        <v>99100</v>
       </c>
       <c r="H48" s="3">
-        <v>109000</v>
+        <v>103700</v>
       </c>
       <c r="I48" s="3">
+        <v>106300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>111000</v>
+      </c>
+      <c r="K48" s="3">
         <v>111500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>114100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>116900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>111700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>111200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>97400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>76700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>73300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>79600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>76600</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F49" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G49" s="3">
         <v>6100</v>
       </c>
-      <c r="E49" s="3">
-        <v>6000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>6300</v>
-      </c>
-      <c r="G49" s="3">
-        <v>8400</v>
-      </c>
       <c r="H49" s="3">
-        <v>9100</v>
+        <v>6400</v>
       </c>
       <c r="I49" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K49" s="3">
         <v>10000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>12600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>13700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>13100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>13000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>12400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>12000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>11600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>12400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2924,70 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6800</v>
+        <v>5200</v>
       </c>
       <c r="E52" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F52" s="3">
         <v>6900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K52" s="3">
         <v>7600</v>
       </c>
-      <c r="H52" s="3">
-        <v>7800</v>
-      </c>
-      <c r="I52" s="3">
-        <v>7600</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>6600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>7200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>6900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>6700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>8800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>14100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>13300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>14000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>188100</v>
+        <v>179300</v>
       </c>
       <c r="E54" s="3">
-        <v>194000</v>
+        <v>198400</v>
       </c>
       <c r="F54" s="3">
-        <v>205200</v>
+        <v>191600</v>
       </c>
       <c r="G54" s="3">
-        <v>219400</v>
+        <v>197600</v>
       </c>
       <c r="H54" s="3">
-        <v>249100</v>
+        <v>209000</v>
       </c>
       <c r="I54" s="3">
+        <v>223400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>253700</v>
+      </c>
+      <c r="K54" s="3">
         <v>269400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>250900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>281400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>264600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>243900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>239300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>213900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>209200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>225200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,93 +3140,101 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>22500</v>
+        <v>25800</v>
       </c>
       <c r="E57" s="3">
-        <v>26900</v>
+        <v>26300</v>
       </c>
       <c r="F57" s="3">
-        <v>35300</v>
+        <v>22900</v>
       </c>
       <c r="G57" s="3">
-        <v>33100</v>
+        <v>27300</v>
       </c>
       <c r="H57" s="3">
-        <v>33000</v>
+        <v>35900</v>
       </c>
       <c r="I57" s="3">
+        <v>33700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>33600</v>
+      </c>
+      <c r="K57" s="3">
         <v>30700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>24300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>27900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>21000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>27100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>27600</v>
-      </c>
-      <c r="O57" s="3">
-        <v>26100</v>
-      </c>
-      <c r="P57" s="3">
-        <v>27700</v>
       </c>
       <c r="Q57" s="3">
         <v>26100</v>
       </c>
       <c r="R57" s="3">
+        <v>27700</v>
+      </c>
+      <c r="S57" s="3">
+        <v>26100</v>
+      </c>
+      <c r="T57" s="3">
         <v>28500</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4400</v>
+        <v>12300</v>
       </c>
       <c r="E58" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F58" s="3">
         <v>4500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>4400</v>
       </c>
       <c r="G58" s="3">
         <v>4500</v>
       </c>
       <c r="H58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I58" s="3">
         <v>4500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K58" s="3">
         <v>9000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>6300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>8000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1200</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>10</v>
@@ -2974,214 +3242,244 @@
       <c r="P58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18500</v>
+        <v>19300</v>
       </c>
       <c r="E59" s="3">
-        <v>17300</v>
+        <v>18100</v>
       </c>
       <c r="F59" s="3">
-        <v>14100</v>
+        <v>18900</v>
       </c>
       <c r="G59" s="3">
-        <v>18700</v>
+        <v>17600</v>
       </c>
       <c r="H59" s="3">
+        <v>14400</v>
+      </c>
+      <c r="I59" s="3">
+        <v>19000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K59" s="3">
+        <v>10400</v>
+      </c>
+      <c r="L59" s="3">
+        <v>15600</v>
+      </c>
+      <c r="M59" s="3">
+        <v>14800</v>
+      </c>
+      <c r="N59" s="3">
+        <v>16900</v>
+      </c>
+      <c r="O59" s="3">
+        <v>14600</v>
+      </c>
+      <c r="P59" s="3">
         <v>19200</v>
       </c>
-      <c r="I59" s="3">
-        <v>10400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>15600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>14800</v>
-      </c>
-      <c r="L59" s="3">
-        <v>16900</v>
-      </c>
-      <c r="M59" s="3">
-        <v>14600</v>
-      </c>
-      <c r="N59" s="3">
-        <v>19200</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>18400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>18400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>18000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>45500</v>
+        <v>57500</v>
       </c>
       <c r="E60" s="3">
         <v>48600</v>
       </c>
       <c r="F60" s="3">
-        <v>53700</v>
+        <v>46300</v>
       </c>
       <c r="G60" s="3">
-        <v>56300</v>
+        <v>49500</v>
       </c>
       <c r="H60" s="3">
-        <v>56700</v>
+        <v>54700</v>
       </c>
       <c r="I60" s="3">
+        <v>57300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>57800</v>
+      </c>
+      <c r="K60" s="3">
         <v>50100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>46200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>50700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>39100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>41800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>46800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>44500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>46100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>44200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>50400</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>83300</v>
+        <v>74100</v>
       </c>
       <c r="E61" s="3">
-        <v>83900</v>
+        <v>84100</v>
       </c>
       <c r="F61" s="3">
-        <v>83700</v>
+        <v>84800</v>
       </c>
       <c r="G61" s="3">
-        <v>89100</v>
+        <v>85500</v>
       </c>
       <c r="H61" s="3">
-        <v>91400</v>
+        <v>85300</v>
       </c>
       <c r="I61" s="3">
+        <v>90700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>93100</v>
+      </c>
+      <c r="K61" s="3">
         <v>90900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>54900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>57700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>46400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>6800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>6900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2900</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E62" s="3">
         <v>49400</v>
       </c>
-      <c r="E62" s="3">
-        <v>37200</v>
-      </c>
       <c r="F62" s="3">
-        <v>39400</v>
+        <v>50300</v>
       </c>
       <c r="G62" s="3">
-        <v>37300</v>
+        <v>37900</v>
       </c>
       <c r="H62" s="3">
-        <v>38500</v>
+        <v>40100</v>
       </c>
       <c r="I62" s="3">
+        <v>38000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>39200</v>
+      </c>
+      <c r="K62" s="3">
         <v>36800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>39100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>38800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>38700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>40200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>32900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>17400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>18400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>20700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>21800</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>178200</v>
+        <v>171100</v>
       </c>
       <c r="E66" s="3">
-        <v>169700</v>
+        <v>182200</v>
       </c>
       <c r="F66" s="3">
-        <v>176800</v>
+        <v>181400</v>
       </c>
       <c r="G66" s="3">
-        <v>182700</v>
+        <v>172800</v>
       </c>
       <c r="H66" s="3">
-        <v>186600</v>
+        <v>180100</v>
       </c>
       <c r="I66" s="3">
+        <v>186000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>190000</v>
+      </c>
+      <c r="K66" s="3">
         <v>177900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>140200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>147100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>124200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>88700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>86600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>64800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>64600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>64900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-240000</v>
+        <v>-250100</v>
       </c>
       <c r="E72" s="3">
-        <v>-224600</v>
+        <v>-241400</v>
       </c>
       <c r="F72" s="3">
-        <v>-216600</v>
+        <v>-244400</v>
       </c>
       <c r="G72" s="3">
-        <v>-207500</v>
+        <v>-228700</v>
       </c>
       <c r="H72" s="3">
-        <v>-181500</v>
+        <v>-220600</v>
       </c>
       <c r="I72" s="3">
+        <v>-211300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-184800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-150300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-128700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-110400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-92900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-76300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-69200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-65000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-65300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-59000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-49300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10000</v>
+        <v>8100</v>
       </c>
       <c r="E76" s="3">
-        <v>24300</v>
+        <v>16200</v>
       </c>
       <c r="F76" s="3">
-        <v>28400</v>
+        <v>10200</v>
       </c>
       <c r="G76" s="3">
-        <v>36700</v>
+        <v>24700</v>
       </c>
       <c r="H76" s="3">
-        <v>62500</v>
+        <v>28900</v>
       </c>
       <c r="I76" s="3">
+        <v>37400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>63700</v>
+      </c>
+      <c r="K76" s="3">
         <v>91500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>110700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>134300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>140400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>155200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>152700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>149100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>144600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>160300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-15400</v>
+        <v>-8700</v>
       </c>
       <c r="E81" s="3">
-        <v>-8000</v>
+        <v>3000</v>
       </c>
       <c r="F81" s="3">
-        <v>-9100</v>
+        <v>-15700</v>
       </c>
       <c r="G81" s="3">
-        <v>-26100</v>
+        <v>-8100</v>
       </c>
       <c r="H81" s="3">
-        <v>-31100</v>
+        <v>-9300</v>
       </c>
       <c r="I81" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-21600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-20800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-13500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-16600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-5600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-9700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4421,66 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I83" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K83" s="3">
+        <v>5200</v>
+      </c>
+      <c r="L83" s="3">
+        <v>5200</v>
+      </c>
+      <c r="M83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="N83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="O83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="P83" s="3">
         <v>3600</v>
       </c>
-      <c r="E83" s="3">
-        <v>3900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>5700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>4500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>6200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>5200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>5200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>4700</v>
-      </c>
-      <c r="L83" s="3">
-        <v>4500</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="Q83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="R83" s="3">
         <v>4000</v>
       </c>
-      <c r="N83" s="3">
-        <v>3600</v>
-      </c>
-      <c r="O83" s="3">
-        <v>3500</v>
-      </c>
-      <c r="P83" s="3">
-        <v>4000</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>3800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1300</v>
+        <v>2600</v>
       </c>
       <c r="E89" s="3">
-        <v>4400</v>
+        <v>5200</v>
       </c>
       <c r="F89" s="3">
-        <v>-14400</v>
+        <v>-1400</v>
       </c>
       <c r="G89" s="3">
-        <v>-24000</v>
+        <v>4500</v>
       </c>
       <c r="H89" s="3">
-        <v>-25700</v>
+        <v>-14700</v>
       </c>
       <c r="I89" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-9400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-16500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-16100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>6800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>7500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>3000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-5800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4835,66 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-8000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-12300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-5700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-6300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4999,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1300</v>
+        <v>-900</v>
       </c>
       <c r="E94" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-2200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-2700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-8900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-4800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-12900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-4300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-5000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-6500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5301,178 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>35600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>10000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>39100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>4500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>3200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>100</v>
       </c>
       <c r="H101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I101" s="3">
+        <v>100</v>
+      </c>
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3600</v>
+        <v>800</v>
       </c>
       <c r="E102" s="3">
-        <v>5100</v>
+        <v>14100</v>
       </c>
       <c r="F102" s="3">
-        <v>-16900</v>
+        <v>-3700</v>
       </c>
       <c r="G102" s="3">
-        <v>-25900</v>
+        <v>5200</v>
       </c>
       <c r="H102" s="3">
-        <v>-28800</v>
+        <v>-17200</v>
       </c>
       <c r="I102" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="K102" s="3">
         <v>23400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-20300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>18600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-6500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>7900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-12100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-2700</v>
       </c>
     </row>
